--- a/DADOS.xlsx
+++ b/DADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daldo\Documents\GitHub\Demonst-Valores V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BD4DE-27F8-4052-95E9-5CF178A669DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298AF3C-B15C-4089-AD64-4DAAE76BB2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6119,155 +6119,155 @@
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F33" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G33" ca="1" si="3">F2/SUMIFS($F$2:$F$33,$C$2:$C$33,C2)</f>
-        <v>5.7771664374140302E-2</v>
+        <v>2.7939464493597205E-2</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:S2" ca="1" si="4">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C2)*$G2)*H$42,2)</f>
-        <v>838.46</v>
+        <v>276.82</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>582.76</v>
+        <v>370</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>701.69</v>
+        <v>438.52</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>856.3</v>
+        <v>391.93</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>755.21</v>
+        <v>317.93</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>725.48</v>
+        <v>367.26</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>784.95</v>
+        <v>424.82</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>505.46</v>
+        <v>290.52</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>707.64</v>
+        <v>265.85000000000002</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>630.34</v>
+        <v>326.14999999999998</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>951.45</v>
+        <v>367.26</v>
       </c>
       <c r="S2" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>767.11</v>
+        <v>422.08</v>
       </c>
       <c r="T2" s="3">
         <f t="shared" ref="T2:AE2" ca="1" si="5">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D2)*$G2)*T$42,2)</f>
-        <v>1070.8699999999999</v>
+        <v>449.62</v>
       </c>
       <c r="U2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>711.61</v>
+        <v>294.88</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>614.89</v>
+        <v>426.26</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>794.52</v>
+        <v>461.3</v>
       </c>
       <c r="X2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>932.69</v>
+        <v>335.75</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>794.52</v>
+        <v>297.8</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>677.07</v>
+        <v>353.27</v>
       </c>
       <c r="AA2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>732.34</v>
+        <v>464.22</v>
       </c>
       <c r="AB2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>697.79</v>
+        <v>435.02</v>
       </c>
       <c r="AC2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>559.62</v>
+        <v>426.26</v>
       </c>
       <c r="AD2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1022.51</v>
+        <v>379.55</v>
       </c>
       <c r="AE2" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>863.6</v>
+        <v>256.92</v>
       </c>
       <c r="AF2" s="6">
         <f t="shared" ref="AF2:AQ2" ca="1" si="6">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E2)*$G2)*AF$42,2)</f>
-        <v>792.34</v>
+        <v>380.54</v>
       </c>
       <c r="AG2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>845.16</v>
+        <v>386.99</v>
       </c>
       <c r="AH2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>891.38</v>
+        <v>316.04000000000002</v>
       </c>
       <c r="AI2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>845.16</v>
+        <v>435.36</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>765.92</v>
+        <v>448.26</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>1056.45</v>
+        <v>464.39</v>
       </c>
       <c r="AL2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>1016.83</v>
+        <v>448.26</v>
       </c>
       <c r="AM2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>838.55</v>
+        <v>386.99</v>
       </c>
       <c r="AN2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>581.04999999999995</v>
+        <v>493.41</v>
       </c>
       <c r="AO2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>633.87</v>
+        <v>293.47000000000003</v>
       </c>
       <c r="AP2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>864.97</v>
+        <v>354.74</v>
       </c>
       <c r="AQ2" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>950.8</v>
+        <v>467.61</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -6290,155 +6290,155 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9037138927097659E-2</v>
+        <v>7.5669383003492435E-2</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:S3" ca="1" si="7">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C3)*$G3)*H$42,2)</f>
-        <v>1437.37</v>
+        <v>749.72</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>999.02</v>
+        <v>1002.09</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1202.9000000000001</v>
+        <v>1187.67</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1467.95</v>
+        <v>1061.48</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1294.6500000000001</v>
+        <v>861.06</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1243.68</v>
+        <v>994.67</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1345.62</v>
+        <v>1150.55</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>866.5</v>
+        <v>786.83</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1213.0999999999999</v>
+        <v>720.02</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1080.57</v>
+        <v>883.33</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1631.06</v>
+        <v>994.67</v>
       </c>
       <c r="S3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1315.04</v>
+        <v>1143.1300000000001</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" ref="T3:AE3" ca="1" si="8">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D3)*$G3)*T$42,2)</f>
-        <v>1835.78</v>
+        <v>1217.71</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1219.9000000000001</v>
+        <v>798.63</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1054.0899999999999</v>
+        <v>1154.46</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1362.03</v>
+        <v>1249.3399999999999</v>
       </c>
       <c r="X3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1598.9</v>
+        <v>909.33</v>
       </c>
       <c r="Y3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1362.03</v>
+        <v>806.54</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1160.68</v>
+        <v>956.78</v>
       </c>
       <c r="AA3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1255.43</v>
+        <v>1257.25</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1196.22</v>
+        <v>1178.18</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>959.34</v>
+        <v>1154.46</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1752.87</v>
+        <v>1027.94</v>
       </c>
       <c r="AE3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1480.47</v>
+        <v>695.84</v>
       </c>
       <c r="AF3" s="6">
         <f t="shared" ref="AF3:AQ3" ca="1" si="9">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E3)*$G3)*AF$42,2)</f>
-        <v>1358.29</v>
+        <v>1030.6300000000001</v>
       </c>
       <c r="AG3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1448.84</v>
+        <v>1048.0999999999999</v>
       </c>
       <c r="AH3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1528.08</v>
+        <v>855.95</v>
       </c>
       <c r="AI3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1448.84</v>
+        <v>1179.1099999999999</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1313.01</v>
+        <v>1214.05</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1811.05</v>
+        <v>1257.72</v>
       </c>
       <c r="AL3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1743.14</v>
+        <v>1214.05</v>
       </c>
       <c r="AM3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1437.52</v>
+        <v>1048.0999999999999</v>
       </c>
       <c r="AN3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>996.08</v>
+        <v>1336.32</v>
       </c>
       <c r="AO3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1086.6300000000001</v>
+        <v>794.81</v>
       </c>
       <c r="AP3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1482.8</v>
+        <v>960.76</v>
       </c>
       <c r="AQ3" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1629.95</v>
+        <v>1266.45</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -6461,155 +6461,155 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2902338376891335E-2</v>
+        <v>8.7310826542491268E-2</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:S4" ca="1" si="10">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C4)*$G4)*H$42,2)</f>
-        <v>1058.06</v>
+        <v>865.06</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>735.39</v>
+        <v>1156.26</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>885.47</v>
+        <v>1370.39</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1080.57</v>
+        <v>1224.78</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>953.01</v>
+        <v>993.53</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>915.49</v>
+        <v>1147.7</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>990.53</v>
+        <v>1327.56</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>637.84</v>
+        <v>907.88</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>892.97</v>
+        <v>830.8</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>795.42</v>
+        <v>1019.22</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1200.6400000000001</v>
+        <v>1147.7</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>968.01</v>
+        <v>1319</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" ref="T4:AE4" ca="1" si="11">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D4)*$G4)*T$42,2)</f>
-        <v>1351.34</v>
+        <v>1405.06</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>897.98</v>
+        <v>921.5</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>775.93</v>
+        <v>1332.07</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1002.6</v>
+        <v>1441.55</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1176.97</v>
+        <v>1049.23</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1002.6</v>
+        <v>930.62</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>854.39</v>
+        <v>1103.97</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>924.14</v>
+        <v>1450.67</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>880.55</v>
+        <v>1359.44</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>706.18</v>
+        <v>1332.07</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1290.31</v>
+        <v>1186.0899999999999</v>
       </c>
       <c r="AE4" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1089.79</v>
+        <v>802.89</v>
       </c>
       <c r="AF4" s="6">
         <f t="shared" ref="AF4:AQ4" ca="1" si="12">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E4)*$G4)*AF$42,2)</f>
-        <v>999.85</v>
+        <v>1189.19</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1066.51</v>
+        <v>1209.3399999999999</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1124.83</v>
+        <v>987.63</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1066.51</v>
+        <v>1360.51</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>966.52</v>
+        <v>1400.82</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1333.14</v>
+        <v>1451.21</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1283.1400000000001</v>
+        <v>1400.82</v>
       </c>
       <c r="AM4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1058.18</v>
+        <v>1209.3399999999999</v>
       </c>
       <c r="AN4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>733.22</v>
+        <v>1541.91</v>
       </c>
       <c r="AO4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>799.88</v>
+        <v>917.09</v>
       </c>
       <c r="AP4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1091.5</v>
+        <v>1108.56</v>
       </c>
       <c r="AQ4" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1199.82</v>
+        <v>1461.29</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -6632,155 +6632,155 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9779917469050887E-2</v>
+        <v>6.2863795110593715E-2</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:S5" ca="1" si="13">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C5)*$G5)*H$42,2)</f>
-        <v>1157.8800000000001</v>
+        <v>622.84</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>804.77</v>
+        <v>832.51</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>969.01</v>
+        <v>986.68</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1182.52</v>
+        <v>881.84</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1042.9100000000001</v>
+        <v>715.34</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1001.85</v>
+        <v>826.34</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1083.97</v>
+        <v>955.84</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>698.01</v>
+        <v>653.66999999999996</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>977.22</v>
+        <v>598.16999999999996</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>870.46</v>
+        <v>733.84</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1313.91</v>
+        <v>826.34</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1059.3399999999999</v>
+        <v>949.68</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" ref="T5:AE5" ca="1" si="14">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D5)*$G5)*T$42,2)</f>
-        <v>1478.82</v>
+        <v>1011.64</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>982.7</v>
+        <v>663.48</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>849.13</v>
+        <v>959.09</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1097.19</v>
+        <v>1037.92</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1288</v>
+        <v>755.45</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1097.19</v>
+        <v>670.05</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>935</v>
+        <v>794.86</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1011.32</v>
+        <v>1044.49</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>963.62</v>
+        <v>978.79</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>772.8</v>
+        <v>959.09</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1412.03</v>
+        <v>853.98</v>
       </c>
       <c r="AE5" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1192.5999999999999</v>
+        <v>578.08000000000004</v>
       </c>
       <c r="AF5" s="6">
         <f t="shared" ref="AF5:AQ5" ca="1" si="15">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E5)*$G5)*AF$42,2)</f>
-        <v>1094.18</v>
+        <v>856.21</v>
       </c>
       <c r="AG5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1167.1199999999999</v>
+        <v>870.73</v>
       </c>
       <c r="AH5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1230.95</v>
+        <v>711.09</v>
       </c>
       <c r="AI5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1167.1199999999999</v>
+        <v>979.57</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1057.7</v>
+        <v>1008.59</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1458.9</v>
+        <v>1044.8699999999999</v>
       </c>
       <c r="AL5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1404.19</v>
+        <v>1008.59</v>
       </c>
       <c r="AM5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1158</v>
+        <v>870.73</v>
       </c>
       <c r="AN5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>802.4</v>
+        <v>1110.18</v>
       </c>
       <c r="AO5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>875.34</v>
+        <v>660.3</v>
       </c>
       <c r="AP5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1194.48</v>
+        <v>798.17</v>
       </c>
       <c r="AQ5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1313.01</v>
+        <v>1052.1300000000001</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -6803,155 +6803,155 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10729023383768914</v>
+        <v>9.4295692665890565E-2</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:S6" ca="1" si="16">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C6)*$G6)*H$42,2)</f>
-        <v>1557.15</v>
+        <v>934.26</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1082.27</v>
+        <v>1248.76</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1303.1500000000001</v>
+        <v>1480.02</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1590.28</v>
+        <v>1322.77</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1402.54</v>
+        <v>1073.01</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1347.32</v>
+        <v>1239.51</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1457.76</v>
+        <v>1433.77</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>938.71</v>
+        <v>980.51</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1314.19</v>
+        <v>897.26</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1170.6199999999999</v>
+        <v>1100.76</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1766.98</v>
+        <v>1239.51</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1424.63</v>
+        <v>1424.52</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" ref="T6:AE6" ca="1" si="17">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D6)*$G6)*T$42,2)</f>
-        <v>1988.76</v>
+        <v>1517.46</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1321.56</v>
+        <v>995.22</v>
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1141.93</v>
+        <v>1438.63</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1475.53</v>
+        <v>1556.87</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1732.14</v>
+        <v>1133.17</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1475.53</v>
+        <v>1005.07</v>
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1257.4100000000001</v>
+        <v>1192.29</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1360.05</v>
+        <v>1566.73</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1295.9000000000001</v>
+        <v>1468.19</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1039.29</v>
+        <v>1438.63</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1898.94</v>
+        <v>1280.97</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1603.84</v>
+        <v>867.12</v>
       </c>
       <c r="AF6" s="6">
         <f t="shared" ref="AF6:AQ6" ca="1" si="18">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E6)*$G6)*AF$42,2)</f>
-        <v>1471.48</v>
+        <v>1284.32</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1569.58</v>
+        <v>1306.0899999999999</v>
       </c>
       <c r="AH6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1655.41</v>
+        <v>1066.6400000000001</v>
       </c>
       <c r="AI6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1569.58</v>
+        <v>1469.35</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1422.43</v>
+        <v>1512.89</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1961.97</v>
+        <v>1567.31</v>
       </c>
       <c r="AL6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1888.4</v>
+        <v>1512.89</v>
       </c>
       <c r="AM6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1557.32</v>
+        <v>1306.0899999999999</v>
       </c>
       <c r="AN6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1079.0899999999999</v>
+        <v>1665.27</v>
       </c>
       <c r="AO6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1177.18</v>
+        <v>990.45</v>
       </c>
       <c r="AP6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1606.37</v>
+        <v>1197.25</v>
       </c>
       <c r="AQ6" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1765.78</v>
+        <v>1578.19</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -6974,155 +6974,155 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0784044016506193E-2</v>
+        <v>4.5401629802095458E-2</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:S7" ca="1" si="19">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C7)*$G7)*H$42,2)</f>
-        <v>1317.59</v>
+        <v>449.83</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>915.77</v>
+        <v>601.26</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1102.6600000000001</v>
+        <v>712.6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1345.62</v>
+        <v>636.89</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1186.76</v>
+        <v>516.64</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1140.04</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1233.49</v>
+        <v>690.33</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>794.29</v>
+        <v>472.1</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1112.01</v>
+        <v>432.01</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>990.53</v>
+        <v>530</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1495.13</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1205.45</v>
+        <v>685.88</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" ref="T7:AE7" ca="1" si="20">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D7)*$G7)*T$42,2)</f>
-        <v>1682.8</v>
+        <v>730.63</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1118.24</v>
+        <v>479.18</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>966.25</v>
+        <v>692.67</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1248.53</v>
+        <v>749.61</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1465.66</v>
+        <v>545.6</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1248.53</v>
+        <v>483.92</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1063.96</v>
+        <v>574.07000000000005</v>
       </c>
       <c r="AA7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1150.82</v>
+        <v>754.35</v>
       </c>
       <c r="AB7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1096.53</v>
+        <v>706.91</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>879.4</v>
+        <v>692.67</v>
       </c>
       <c r="AD7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1606.8</v>
+        <v>616.76</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1357.09</v>
+        <v>417.5</v>
       </c>
       <c r="AF7" s="6">
         <f t="shared" ref="AF7:AQ7" ca="1" si="21">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E7)*$G7)*AF$42,2)</f>
-        <v>1245.0999999999999</v>
+        <v>618.38</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1328.1</v>
+        <v>628.86</v>
       </c>
       <c r="AH7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1400.74</v>
+        <v>513.57000000000005</v>
       </c>
       <c r="AI7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1328.1</v>
+        <v>707.47</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1203.5999999999999</v>
+        <v>728.43</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1660.13</v>
+        <v>754.63</v>
       </c>
       <c r="AL7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1597.88</v>
+        <v>728.43</v>
       </c>
       <c r="AM7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1317.73</v>
+        <v>628.86</v>
       </c>
       <c r="AN7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>913.07</v>
+        <v>801.79</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>996.08</v>
+        <v>476.88</v>
       </c>
       <c r="AP7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1359.23</v>
+        <v>576.45000000000005</v>
       </c>
       <c r="AQ7" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1494.12</v>
+        <v>759.87</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -7145,155 +7145,155 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4.676753782668501E-2</v>
+        <v>1.6298020954598369E-2</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:S8" ca="1" si="22">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C8)*$G8)*H$42,2)</f>
-        <v>678.76</v>
+        <v>161.47999999999999</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>471.76</v>
+        <v>215.84</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>568.04</v>
+        <v>255.81</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>693.2</v>
+        <v>228.63</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>611.36</v>
+        <v>185.46</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>587.29</v>
+        <v>214.24</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>635.42999999999995</v>
+        <v>247.81</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>409.18</v>
+        <v>169.47</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>572.85</v>
+        <v>155.08000000000001</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>510.27</v>
+        <v>190.26</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>770.22</v>
+        <v>214.24</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>620.99</v>
+        <v>246.21</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ref="T8:AE8" ca="1" si="23">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D8)*$G8)*T$42,2)</f>
-        <v>866.89</v>
+        <v>262.27999999999997</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>576.07000000000005</v>
+        <v>172.01</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>497.77</v>
+        <v>248.65</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>643.17999999999995</v>
+        <v>269.08999999999997</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>755.04</v>
+        <v>195.86</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>643.17999999999995</v>
+        <v>173.72</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>548.1</v>
+        <v>206.07</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>592.84</v>
+        <v>270.79000000000002</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>564.88</v>
+        <v>253.76</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>453.02</v>
+        <v>248.65</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>827.74</v>
+        <v>221.4</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>699.11</v>
+        <v>149.87</v>
       </c>
       <c r="AF8" s="6">
         <f t="shared" ref="AF8:AQ8" ca="1" si="24">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E8)*$G8)*AF$42,2)</f>
-        <v>641.41</v>
+        <v>221.98</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>684.18</v>
+        <v>225.74</v>
       </c>
       <c r="AH8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>721.59</v>
+        <v>184.36</v>
       </c>
       <c r="AI8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>684.18</v>
+        <v>253.96</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>620.03</v>
+        <v>261.49</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>855.22</v>
+        <v>270.89</v>
       </c>
       <c r="AL8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>823.15</v>
+        <v>261.49</v>
       </c>
       <c r="AM8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>678.83</v>
+        <v>225.74</v>
       </c>
       <c r="AN8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>470.37</v>
+        <v>287.82</v>
       </c>
       <c r="AO8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>513.13</v>
+        <v>171.19</v>
       </c>
       <c r="AP8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>700.21</v>
+        <v>206.93</v>
       </c>
       <c r="AQ8" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>769.7</v>
+        <v>272.77</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -7316,155 +7316,155 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8775790921595595E-3</v>
+        <v>8.4982537834691507E-2</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:S9" ca="1" si="25">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C9)*$G9)*H$42,2)</f>
-        <v>99.82</v>
+        <v>841.99</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>69.38</v>
+        <v>1125.43</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>83.53</v>
+        <v>1333.84</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>101.94</v>
+        <v>1192.1199999999999</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>89.91</v>
+        <v>967.04</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>86.37</v>
+        <v>1117.0899999999999</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>93.45</v>
+        <v>1292.1600000000001</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>60.17</v>
+        <v>883.67</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>84.24</v>
+        <v>808.64</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>75.040000000000006</v>
+        <v>992.05</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>113.27</v>
+        <v>1117.0899999999999</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>91.32</v>
+        <v>1283.82</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" ref="T9:AE9" ca="1" si="26">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D9)*$G9)*T$42,2)</f>
-        <v>127.48</v>
+        <v>1367.59</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>84.72</v>
+        <v>896.92</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>73.2</v>
+        <v>1296.54</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>94.59</v>
+        <v>1403.11</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>111.03</v>
+        <v>1021.25</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>94.59</v>
+        <v>905.8</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>80.599999999999994</v>
+        <v>1074.53</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>87.18</v>
+        <v>1411.99</v>
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>83.07</v>
+        <v>1323.19</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>66.62</v>
+        <v>1296.54</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>121.73</v>
+        <v>1154.46</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>102.81</v>
+        <v>781.48</v>
       </c>
       <c r="AF9" s="6">
         <f t="shared" ref="AF9:AQ9" ca="1" si="27">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E9)*$G9)*AF$42,2)</f>
-        <v>94.33</v>
+        <v>1157.48</v>
       </c>
       <c r="AG9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>100.61</v>
+        <v>1177.0899999999999</v>
       </c>
       <c r="AH9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>106.12</v>
+        <v>961.29</v>
       </c>
       <c r="AI9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>100.61</v>
+        <v>1324.23</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>91.18</v>
+        <v>1363.47</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>125.77</v>
+        <v>1412.51</v>
       </c>
       <c r="AL9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>121.05</v>
+        <v>1363.47</v>
       </c>
       <c r="AM9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>99.83</v>
+        <v>1177.0899999999999</v>
       </c>
       <c r="AN9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>69.17</v>
+        <v>1500.79</v>
       </c>
       <c r="AO9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>75.459999999999994</v>
+        <v>892.63</v>
       </c>
       <c r="AP9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>102.97</v>
+        <v>1079</v>
       </c>
       <c r="AQ9" s="6">
         <f t="shared" ca="1" si="27"/>
-        <v>113.19</v>
+        <v>1422.32</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -7487,155 +7487,155 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5653370013755161E-2</v>
+        <v>8.381839348079162E-2</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ref="H10:S10" ca="1" si="28">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C10)*$G10)*H$42,2)</f>
-        <v>1097.99</v>
+        <v>830.45</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>763.14</v>
+        <v>1110.01</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>918.88</v>
+        <v>1315.57</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1121.3499999999999</v>
+        <v>1175.79</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>988.97</v>
+        <v>953.79</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>950.03</v>
+        <v>1101.79</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1027.9100000000001</v>
+        <v>1274.46</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>661.91</v>
+        <v>871.57</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>926.67</v>
+        <v>797.56</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>825.44</v>
+        <v>978.46</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1245.95</v>
+        <v>1101.79</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1004.54</v>
+        <v>1266.24</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" ref="T10:AE10" ca="1" si="29">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D10)*$G10)*T$42,2)</f>
-        <v>1402.33</v>
+        <v>1348.85</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>931.87</v>
+        <v>884.64</v>
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>805.21</v>
+        <v>1278.78</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1040.44</v>
+        <v>1383.89</v>
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1221.3800000000001</v>
+        <v>1007.26</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1040.44</v>
+        <v>893.4</v>
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>886.63</v>
+        <v>1059.81</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>959.01</v>
+        <v>1392.65</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>913.78</v>
+        <v>1305.06</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>732.83</v>
+        <v>1278.78</v>
       </c>
       <c r="AD10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1339</v>
+        <v>1138.6400000000001</v>
       </c>
       <c r="AE10" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1130.9100000000001</v>
+        <v>770.77</v>
       </c>
       <c r="AF10" s="6">
         <f t="shared" ref="AF10:AQ10" ca="1" si="30">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E10)*$G10)*AF$42,2)</f>
-        <v>1037.58</v>
+        <v>1141.6199999999999</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1106.75</v>
+        <v>1160.97</v>
       </c>
       <c r="AH10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1167.28</v>
+        <v>948.12</v>
       </c>
       <c r="AI10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1106.75</v>
+        <v>1306.0899999999999</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1003</v>
+        <v>1344.79</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1383.44</v>
+        <v>1393.16</v>
       </c>
       <c r="AL10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1331.56</v>
+        <v>1344.79</v>
       </c>
       <c r="AM10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1098.1099999999999</v>
+        <v>1160.97</v>
       </c>
       <c r="AN10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>760.89</v>
+        <v>1480.24</v>
       </c>
       <c r="AO10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>830.07</v>
+        <v>880.4</v>
       </c>
       <c r="AP10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1132.69</v>
+        <v>1064.22</v>
       </c>
       <c r="AQ10" s="6">
         <f t="shared" ca="1" si="30"/>
-        <v>1245.0999999999999</v>
+        <v>1402.84</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -7658,155 +7658,155 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4.264099037138927E-2</v>
+        <v>9.7788125727590228E-2</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ref="H11:S11" ca="1" si="31">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C11)*$G11)*H$42,2)</f>
-        <v>618.87</v>
+        <v>968.86</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>430.13</v>
+        <v>1295.01</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>517.91999999999996</v>
+        <v>1534.83</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>632.03</v>
+        <v>1371.76</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>557.41999999999996</v>
+        <v>1112.75</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>535.47</v>
+        <v>1285.42</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>579.36</v>
+        <v>1486.87</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>373.08</v>
+        <v>1016.83</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>522.30999999999995</v>
+        <v>930.49</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>465.25</v>
+        <v>1141.53</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>702.26</v>
+        <v>1285.42</v>
       </c>
       <c r="S11" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>566.20000000000005</v>
+        <v>1477.28</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" ref="T11:AE11" ca="1" si="32">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D11)*$G11)*T$42,2)</f>
-        <v>790.4</v>
+        <v>1573.66</v>
       </c>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>525.24</v>
+        <v>1032.08</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>453.84</v>
+        <v>1491.91</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>586.42999999999995</v>
+        <v>1614.54</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>688.42</v>
+        <v>1175.1400000000001</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>586.42999999999995</v>
+        <v>1042.3</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>499.74</v>
+        <v>1236.45</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>540.53</v>
+        <v>1624.76</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>515.04</v>
+        <v>1522.57</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>413.05</v>
+        <v>1491.91</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>754.71</v>
+        <v>1328.42</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>637.41999999999996</v>
+        <v>899.24</v>
       </c>
       <c r="AF11" s="6">
         <f t="shared" ref="AF11:AQ11" ca="1" si="33">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E11)*$G11)*AF$42,2)</f>
-        <v>584.82000000000005</v>
+        <v>1331.89</v>
       </c>
       <c r="AG11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>623.80999999999995</v>
+        <v>1354.46</v>
       </c>
       <c r="AH11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>657.92</v>
+        <v>1106.1500000000001</v>
       </c>
       <c r="AI11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>623.80999999999995</v>
+        <v>1523.77</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>565.32000000000005</v>
+        <v>1568.92</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>779.76</v>
+        <v>1625.36</v>
       </c>
       <c r="AL11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>750.52</v>
+        <v>1568.92</v>
       </c>
       <c r="AM11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>618.92999999999995</v>
+        <v>1354.46</v>
       </c>
       <c r="AN11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>428.87</v>
+        <v>1726.94</v>
       </c>
       <c r="AO11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>467.86</v>
+        <v>1027.1400000000001</v>
       </c>
       <c r="AP11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>638.42999999999995</v>
+        <v>1241.5899999999999</v>
       </c>
       <c r="AQ11" s="6">
         <f t="shared" ca="1" si="33"/>
-        <v>701.78</v>
+        <v>1636.64</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -7829,155 +7829,155 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6286107290233843E-3</v>
+        <v>6.9848661233993012E-2</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ref="H12:S12" ca="1" si="34">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C12)*$G12)*H$42,2)</f>
-        <v>139.74</v>
+        <v>692.05</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>97.13</v>
+        <v>925.01</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>116.95</v>
+        <v>1096.31</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>142.72</v>
+        <v>979.83</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>125.87</v>
+        <v>794.82</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>120.91</v>
+        <v>918.16</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>130.82</v>
+        <v>1062.05</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>84.24</v>
+        <v>726.3</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>117.94</v>
+        <v>664.64</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>105.06</v>
+        <v>815.38</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>158.57</v>
+        <v>918.16</v>
       </c>
       <c r="S12" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>127.85</v>
+        <v>1055.2</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" ref="T12:AE12" ca="1" si="35">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D12)*$G12)*T$42,2)</f>
-        <v>178.48</v>
+        <v>1124.04</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>118.6</v>
+        <v>737.2</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>102.48</v>
+        <v>1065.6500000000001</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>132.41999999999999</v>
+        <v>1153.24</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>155.44999999999999</v>
+        <v>839.38</v>
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>132.41999999999999</v>
+        <v>744.5</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>112.84</v>
+        <v>883.18</v>
       </c>
       <c r="AA12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>122.06</v>
+        <v>1160.54</v>
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>116.3</v>
+        <v>1087.55</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>93.27</v>
+        <v>1065.6500000000001</v>
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>170.42</v>
+        <v>948.87</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>143.93</v>
+        <v>642.30999999999995</v>
       </c>
       <c r="AF12" s="6">
         <f t="shared" ref="AF12:AQ12" ca="1" si="36">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E12)*$G12)*AF$42,2)</f>
-        <v>132.06</v>
+        <v>951.35</v>
       </c>
       <c r="AG12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>140.86000000000001</v>
+        <v>967.47</v>
       </c>
       <c r="AH12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>148.56</v>
+        <v>790.1</v>
       </c>
       <c r="AI12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>140.86000000000001</v>
+        <v>1088.4100000000001</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>127.65</v>
+        <v>1120.6600000000001</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>176.07</v>
+        <v>1160.97</v>
       </c>
       <c r="AL12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>169.47</v>
+        <v>1120.6600000000001</v>
       </c>
       <c r="AM12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>139.76</v>
+        <v>967.47</v>
       </c>
       <c r="AN12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>96.84</v>
+        <v>1233.53</v>
       </c>
       <c r="AO12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>105.64</v>
+        <v>733.67</v>
       </c>
       <c r="AP12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>144.16</v>
+        <v>886.85</v>
       </c>
       <c r="AQ12" s="6">
         <f t="shared" ca="1" si="36"/>
-        <v>158.47</v>
+        <v>1169.03</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -8000,155 +8000,155 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>8.940852819807428E-2</v>
+        <v>4.5401629802095458E-2</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" ref="H13:S13" ca="1" si="37">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C13)*$G13)*H$42,2)</f>
-        <v>1297.6199999999999</v>
+        <v>449.83</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>901.89</v>
+        <v>601.26</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1085.95</v>
+        <v>712.6</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1325.23</v>
+        <v>636.89</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1168.78</v>
+        <v>516.64</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1122.77</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1214.8</v>
+        <v>690.33</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>782.26</v>
+        <v>472.1</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1095.1600000000001</v>
+        <v>432.01</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>975.52</v>
+        <v>530</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1472.48</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="S13" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1187.19</v>
+        <v>685.88</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ref="T13:AE13" ca="1" si="38">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D13)*$G13)*T$42,2)</f>
-        <v>1657.3</v>
+        <v>730.63</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1101.3</v>
+        <v>479.18</v>
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>951.61</v>
+        <v>692.67</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1229.6099999999999</v>
+        <v>749.61</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1443.45</v>
+        <v>545.6</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1229.6099999999999</v>
+        <v>483.92</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1047.8399999999999</v>
+        <v>574.07000000000005</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1133.3800000000001</v>
+        <v>754.35</v>
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1079.92</v>
+        <v>706.91</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>866.07</v>
+        <v>692.67</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1582.45</v>
+        <v>616.76</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>1336.53</v>
+        <v>417.5</v>
       </c>
       <c r="AF13" s="6">
         <f t="shared" ref="AF13:AQ13" ca="1" si="39">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E13)*$G13)*AF$42,2)</f>
-        <v>1226.23</v>
+        <v>618.38</v>
       </c>
       <c r="AG13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1307.98</v>
+        <v>628.86</v>
       </c>
       <c r="AH13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1379.51</v>
+        <v>513.57000000000005</v>
       </c>
       <c r="AI13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1307.98</v>
+        <v>707.47</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1185.3599999999999</v>
+        <v>728.43</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1634.98</v>
+        <v>754.63</v>
       </c>
       <c r="AL13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1573.67</v>
+        <v>728.43</v>
       </c>
       <c r="AM13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1297.76</v>
+        <v>628.86</v>
       </c>
       <c r="AN13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>899.24</v>
+        <v>801.79</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>980.99</v>
+        <v>476.88</v>
       </c>
       <c r="AP13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1338.64</v>
+        <v>576.45000000000005</v>
       </c>
       <c r="AQ13" s="6">
         <f t="shared" ca="1" si="39"/>
-        <v>1471.48</v>
+        <v>759.87</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -8171,155 +8171,155 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1004126547455296E-2</v>
+        <v>7.2176949941792787E-2</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" ref="H14:S14" ca="1" si="40">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C14)*$G14)*H$42,2)</f>
-        <v>159.71</v>
+        <v>715.11</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>111</v>
+        <v>955.84</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>133.66</v>
+        <v>1132.8499999999999</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>163.11000000000001</v>
+        <v>1012.49</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>143.85</v>
+        <v>821.32</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>138.19</v>
+        <v>948.76</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>149.51</v>
+        <v>1097.45</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>96.28</v>
+        <v>750.51</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>134.79</v>
+        <v>686.79</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>120.06</v>
+        <v>842.56</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>181.23</v>
+        <v>948.76</v>
       </c>
       <c r="S14" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>146.12</v>
+        <v>1090.3699999999999</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ref="T14:AE14" ca="1" si="41">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D14)*$G14)*T$42,2)</f>
-        <v>203.98</v>
+        <v>1161.51</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>135.54</v>
+        <v>761.77</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>117.12</v>
+        <v>1101.17</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>151.34</v>
+        <v>1191.68</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>177.66</v>
+        <v>867.36</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>151.34</v>
+        <v>769.31</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>128.96</v>
+        <v>912.62</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>139.49</v>
+        <v>1199.22</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>132.91</v>
+        <v>1123.8</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>106.59</v>
+        <v>1101.17</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>194.76</v>
+        <v>980.5</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>164.5</v>
+        <v>663.72</v>
       </c>
       <c r="AF14" s="6">
         <f t="shared" ref="AF14:AQ14" ca="1" si="42">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E14)*$G14)*AF$42,2)</f>
-        <v>150.91999999999999</v>
+        <v>983.06</v>
       </c>
       <c r="AG14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>160.97999999999999</v>
+        <v>999.72</v>
       </c>
       <c r="AH14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>169.79</v>
+        <v>816.44</v>
       </c>
       <c r="AI14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>160.97999999999999</v>
+        <v>1124.69</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>145.88999999999999</v>
+        <v>1158.01</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>201.23</v>
+        <v>1199.67</v>
       </c>
       <c r="AL14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>193.68</v>
+        <v>1158.01</v>
       </c>
       <c r="AM14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>159.72</v>
+        <v>999.72</v>
       </c>
       <c r="AN14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>110.68</v>
+        <v>1274.6500000000001</v>
       </c>
       <c r="AO14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>120.74</v>
+        <v>758.12</v>
       </c>
       <c r="AP14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>164.76</v>
+        <v>916.41</v>
       </c>
       <c r="AQ14" s="6">
         <f t="shared" ca="1" si="42"/>
-        <v>181.11</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -8342,155 +8342,155 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9779917469050887E-2</v>
+        <v>2.4447031431897557E-2</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ref="H15:S15" ca="1" si="43">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C15)*$G15)*H$42,2)</f>
-        <v>1157.8800000000001</v>
+        <v>242.22</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>804.77</v>
+        <v>323.75</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>969.01</v>
+        <v>383.71</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1182.52</v>
+        <v>342.94</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1042.9100000000001</v>
+        <v>278.19</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1001.85</v>
+        <v>321.36</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1083.97</v>
+        <v>371.72</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>698.01</v>
+        <v>254.21</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>977.22</v>
+        <v>232.62</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>870.46</v>
+        <v>285.38</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1313.91</v>
+        <v>321.36</v>
       </c>
       <c r="S15" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1059.3399999999999</v>
+        <v>369.32</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ref="T15:AE15" ca="1" si="44">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D15)*$G15)*T$42,2)</f>
-        <v>1478.82</v>
+        <v>393.42</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>982.7</v>
+        <v>258.02</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>849.13</v>
+        <v>372.98</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1097.19</v>
+        <v>403.63</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1288</v>
+        <v>293.77999999999997</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1097.19</v>
+        <v>260.57</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>935</v>
+        <v>309.11</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1011.32</v>
+        <v>406.19</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>963.62</v>
+        <v>380.64</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>772.8</v>
+        <v>372.98</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1412.03</v>
+        <v>332.1</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1192.5999999999999</v>
+        <v>224.81</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" ref="AF15:AQ15" ca="1" si="45">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E15)*$G15)*AF$42,2)</f>
-        <v>1094.18</v>
+        <v>332.97</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1167.1199999999999</v>
+        <v>338.62</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1230.95</v>
+        <v>276.54000000000002</v>
       </c>
       <c r="AI15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1167.1199999999999</v>
+        <v>380.94</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1057.7</v>
+        <v>392.23</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1458.9</v>
+        <v>406.34</v>
       </c>
       <c r="AL15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1404.19</v>
+        <v>392.23</v>
       </c>
       <c r="AM15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1158</v>
+        <v>338.62</v>
       </c>
       <c r="AN15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>802.4</v>
+        <v>431.74</v>
       </c>
       <c r="AO15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>875.34</v>
+        <v>256.77999999999997</v>
       </c>
       <c r="AP15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1194.48</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="AQ15" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>1313.01</v>
+        <v>409.16</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -8513,155 +8513,155 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13067400275103164</v>
+        <v>0.11175785797438882</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" ref="H16:S16" ca="1" si="46">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C16)*$G16)*H$42,2)</f>
-        <v>1896.53</v>
+        <v>1107.27</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1318.15</v>
+        <v>1480.02</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1587.16</v>
+        <v>1754.09</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1936.88</v>
+        <v>1567.72</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1708.22</v>
+        <v>1271.72</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1640.97</v>
+        <v>1469.05</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1775.47</v>
+        <v>1699.28</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1143.3</v>
+        <v>1162.0899999999999</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1600.62</v>
+        <v>1063.42</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1425.76</v>
+        <v>1304.6099999999999</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>2152.09</v>
+        <v>1469.05</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1735.12</v>
+        <v>1688.32</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" ref="T16:AE16" ca="1" si="47">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D16)*$G16)*T$42,2)</f>
-        <v>2422.21</v>
+        <v>1798.47</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1609.59</v>
+        <v>1179.52</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1390.81</v>
+        <v>1705.04</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1797.12</v>
+        <v>1845.18</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>2109.66</v>
+        <v>1343.01</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1797.12</v>
+        <v>1191.2</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1531.46</v>
+        <v>1413.08</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1656.48</v>
+        <v>1856.86</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1578.34</v>
+        <v>1740.08</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1265.8</v>
+        <v>1705.04</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>2312.8200000000002</v>
+        <v>1518.19</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1953.39</v>
+        <v>1027.7</v>
       </c>
       <c r="AF16" s="6">
         <f t="shared" ref="AF16:AQ16" ca="1" si="48">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E16)*$G16)*AF$42,2)</f>
-        <v>1792.19</v>
+        <v>1522.16</v>
       </c>
       <c r="AG16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1911.67</v>
+        <v>1547.96</v>
       </c>
       <c r="AH16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>2016.21</v>
+        <v>1264.17</v>
       </c>
       <c r="AI16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1911.67</v>
+        <v>1741.45</v>
       </c>
       <c r="AJ16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1732.45</v>
+        <v>1793.05</v>
       </c>
       <c r="AK16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>2389.58</v>
+        <v>1857.55</v>
       </c>
       <c r="AL16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>2299.9699999999998</v>
+        <v>1793.05</v>
       </c>
       <c r="AM16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1896.73</v>
+        <v>1547.96</v>
       </c>
       <c r="AN16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1314.27</v>
+        <v>1973.65</v>
       </c>
       <c r="AO16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1433.75</v>
+        <v>1173.8699999999999</v>
       </c>
       <c r="AP16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>1956.47</v>
+        <v>1418.96</v>
       </c>
       <c r="AQ16" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>2150.62</v>
+        <v>1870.45</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -8684,155 +8684,155 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40298507462686567</v>
+        <v>0.25524475524475526</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:S17" ca="1" si="51">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C17)*$G17)*H$42,2)</f>
-        <v>-1954.22</v>
+        <v>-844.98</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1358.25</v>
+        <v>-1129.43</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1635.45</v>
+        <v>-1338.59</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1995.8</v>
+        <v>-1196.3599999999999</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1760.19</v>
+        <v>-970.48</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1690.89</v>
+        <v>-1121.07</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1829.48</v>
+        <v>-1296.76</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1178.08</v>
+        <v>-886.81</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1649.31</v>
+        <v>-811.52</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1469.13</v>
+        <v>-995.57</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-2217.56</v>
+        <v>-1121.07</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1787.9</v>
+        <v>-1288.3900000000001</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ref="T17:AE17" ca="1" si="52">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D17)*$G17)*T$42,2)</f>
-        <v>-2551.0500000000002</v>
+        <v>-1402.78</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1695.22</v>
+        <v>-920.01</v>
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1464.8</v>
+        <v>-1329.91</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1892.72</v>
+        <v>-1439.22</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-2221.88</v>
+        <v>-1047.53</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1892.72</v>
+        <v>-929.12</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1612.92</v>
+        <v>-1102.19</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1744.59</v>
+        <v>-1448.33</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1662.3</v>
+        <v>-1357.24</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1333.13</v>
+        <v>-1329.91</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-2435.84</v>
+        <v>-1184.17</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-2057.3000000000002</v>
+        <v>-801.59</v>
       </c>
       <c r="AF17" s="6">
         <f t="shared" ref="AF17:AQ17" ca="1" si="53">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E17)*$G17)*AF$42,2)</f>
-        <v>-1872.49</v>
+        <v>-1177.81</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1997.32</v>
+        <v>-1197.77</v>
       </c>
       <c r="AH17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-2106.5500000000002</v>
+        <v>-978.18</v>
       </c>
       <c r="AI17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1997.32</v>
+        <v>-1347.49</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1810.07</v>
+        <v>-1387.42</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-2496.65</v>
+        <v>-1437.32</v>
       </c>
       <c r="AL17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-2403.02</v>
+        <v>-1387.42</v>
       </c>
       <c r="AM17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1981.71</v>
+        <v>-1197.77</v>
       </c>
       <c r="AN17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1373.16</v>
+        <v>-1527.16</v>
       </c>
       <c r="AO17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-1497.99</v>
+        <v>-908.31</v>
       </c>
       <c r="AP17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-2044.13</v>
+        <v>-1097.96</v>
       </c>
       <c r="AQ17" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>-2246.98</v>
+        <v>-1447.31</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -8855,155 +8855,155 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20398009950248755</v>
+        <v>0.28321678321678323</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ref="H18:S18" ca="1" si="54">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C18)*$G18)*H$42,2)</f>
-        <v>-989.17</v>
+        <v>-937.58</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-687.51</v>
+        <v>-1253.21</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-827.82</v>
+        <v>-1485.28</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-1010.22</v>
+        <v>-1327.47</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-890.96</v>
+        <v>-1076.83</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-855.88</v>
+        <v>-1243.92</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-926.04</v>
+        <v>-1438.87</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-596.30999999999995</v>
+        <v>-984</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-834.83</v>
+        <v>-900.45</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-743.63</v>
+        <v>-1104.68</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-1122.47</v>
+        <v>-1243.92</v>
       </c>
       <c r="S18" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-904.99</v>
+        <v>-1429.58</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" ref="T18:AE18" ca="1" si="55">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D18)*$G18)*T$42,2)</f>
-        <v>-1291.27</v>
+        <v>-1556.51</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-858.07</v>
+        <v>-1020.83</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-741.44</v>
+        <v>-1475.66</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-958.04</v>
+        <v>-1596.94</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-1124.6600000000001</v>
+        <v>-1162.33</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-958.04</v>
+        <v>-1030.94</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-816.42</v>
+        <v>-1222.97</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-883.06</v>
+        <v>-1607.05</v>
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-841.41</v>
+        <v>-1505.98</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-674.79</v>
+        <v>-1475.66</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-1232.96</v>
+        <v>-1313.94</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" ca="1" si="55"/>
-        <v>-1041.3499999999999</v>
+        <v>-889.44</v>
       </c>
       <c r="AF18" s="6">
         <f t="shared" ref="AF18:AQ18" ca="1" si="56">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E18)*$G18)*AF$42,2)</f>
-        <v>-947.8</v>
+        <v>-1306.8800000000001</v>
       </c>
       <c r="AG18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1010.99</v>
+        <v>-1329.03</v>
       </c>
       <c r="AH18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1066.28</v>
+        <v>-1085.3800000000001</v>
       </c>
       <c r="AI18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1010.99</v>
+        <v>-1495.16</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-916.21</v>
+        <v>-1539.46</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1263.74</v>
+        <v>-1594.84</v>
       </c>
       <c r="AL18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1216.3499999999999</v>
+        <v>-1539.46</v>
       </c>
       <c r="AM18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1003.09</v>
+        <v>-1329.03</v>
       </c>
       <c r="AN18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-695.05</v>
+        <v>-1694.52</v>
       </c>
       <c r="AO18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-758.24</v>
+        <v>-1007.85</v>
       </c>
       <c r="AP18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1034.68</v>
+        <v>-1218.28</v>
       </c>
       <c r="AQ18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>-1137.3599999999999</v>
+        <v>-1605.91</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -9026,155 +9026,155 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4626865671641784E-2</v>
+        <v>0.28671328671328672</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ref="H19:S19" ca="1" si="57">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C19)*$G19)*H$42,2)</f>
-        <v>-361.89</v>
+        <v>-949.16</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-251.53</v>
+        <v>-1268.68</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-302.86</v>
+        <v>-1503.62</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-369.59</v>
+        <v>-1343.86</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-325.95999999999998</v>
+        <v>-1090.1199999999999</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-313.13</v>
+        <v>-1259.28</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-338.79</v>
+        <v>-1456.63</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-218.16</v>
+        <v>-996.15</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-305.43</v>
+        <v>-911.57</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-272.06</v>
+        <v>-1118.32</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-410.66</v>
+        <v>-1259.28</v>
       </c>
       <c r="S19" s="3">
         <f t="shared" ca="1" si="57"/>
-        <v>-331.09</v>
+        <v>-1447.23</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19:AE19" ca="1" si="58">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D19)*$G19)*T$42,2)</f>
-        <v>-472.42</v>
+        <v>-1575.73</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-313.93</v>
+        <v>-1033.43</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-271.26</v>
+        <v>-1493.87</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-350.5</v>
+        <v>-1616.66</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-411.46</v>
+        <v>-1176.68</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-350.5</v>
+        <v>-1043.6600000000001</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-298.69</v>
+        <v>-1238.07</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-323.07</v>
+        <v>-1626.89</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-307.83</v>
+        <v>-1524.57</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-246.88</v>
+        <v>-1493.87</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-451.08</v>
+        <v>-1330.16</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" ca="1" si="58"/>
-        <v>-380.98</v>
+        <v>-900.42</v>
       </c>
       <c r="AF19" s="6">
         <f t="shared" ref="AF19:AQ19" ca="1" si="59">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E19)*$G19)*AF$42,2)</f>
-        <v>-346.76</v>
+        <v>-1323.02</v>
       </c>
       <c r="AG19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-369.87</v>
+        <v>-1345.44</v>
       </c>
       <c r="AH19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-390.1</v>
+        <v>-1098.78</v>
       </c>
       <c r="AI19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-369.87</v>
+        <v>-1513.62</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-335.2</v>
+        <v>-1558.47</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-462.34</v>
+        <v>-1614.53</v>
       </c>
       <c r="AL19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-445</v>
+        <v>-1558.47</v>
       </c>
       <c r="AM19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-366.98</v>
+        <v>-1345.44</v>
       </c>
       <c r="AN19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-254.29</v>
+        <v>-1715.44</v>
       </c>
       <c r="AO19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-277.41000000000003</v>
+        <v>-1020.29</v>
       </c>
       <c r="AP19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-378.54</v>
+        <v>-1233.32</v>
       </c>
       <c r="AQ19" s="6">
         <f t="shared" ca="1" si="59"/>
-        <v>-416.11</v>
+        <v>-1625.74</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -9197,155 +9197,155 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31840796019900497</v>
+        <v>0.17482517482517482</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ref="H20:S20" ca="1" si="60">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C20)*$G20)*H$42,2)</f>
-        <v>-1544.08</v>
+        <v>-578.76</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1073.19</v>
+        <v>-773.58</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1292.21</v>
+        <v>-916.84</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1576.93</v>
+        <v>-819.43</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1390.76</v>
+        <v>-664.71</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1336.01</v>
+        <v>-767.85</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1445.52</v>
+        <v>-888.19</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-930.83</v>
+        <v>-607.41</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1303.1600000000001</v>
+        <v>-555.83000000000004</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1160.79</v>
+        <v>-681.9</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1752.14</v>
+        <v>-767.85</v>
       </c>
       <c r="S20" s="3">
         <f t="shared" ca="1" si="60"/>
-        <v>-1412.67</v>
+        <v>-882.46</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" ref="T20:AE20" ca="1" si="61">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D20)*$G20)*T$42,2)</f>
-        <v>-2015.65</v>
+        <v>-960.81</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1339.43</v>
+        <v>-630.14</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1157.3699999999999</v>
+        <v>-910.9</v>
       </c>
       <c r="W20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1495.48</v>
+        <v>-985.77</v>
       </c>
       <c r="X20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1755.56</v>
+        <v>-717.49</v>
       </c>
       <c r="Y20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1495.48</v>
+        <v>-636.38</v>
       </c>
       <c r="Z20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1274.4100000000001</v>
+        <v>-754.92</v>
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1378.44</v>
+        <v>-992.01</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1313.42</v>
+        <v>-929.62</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1053.3399999999999</v>
+        <v>-910.9</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1924.62</v>
+        <v>-811.07</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" ca="1" si="61"/>
-        <v>-1625.52</v>
+        <v>-549.03</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" ref="AF20:AQ20" ca="1" si="62">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E20)*$G20)*AF$42,2)</f>
-        <v>-1479.49</v>
+        <v>-806.72</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1578.13</v>
+        <v>-820.39</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1664.43</v>
+        <v>-669.99</v>
       </c>
       <c r="AI20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1578.13</v>
+        <v>-922.94</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1430.18</v>
+        <v>-950.29</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1972.66</v>
+        <v>-984.47</v>
       </c>
       <c r="AL20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1898.68</v>
+        <v>-950.29</v>
       </c>
       <c r="AM20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1565.8</v>
+        <v>-820.39</v>
       </c>
       <c r="AN20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1084.96</v>
+        <v>-1046</v>
       </c>
       <c r="AO20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1183.5999999999999</v>
+        <v>-622.13</v>
       </c>
       <c r="AP20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1615.12</v>
+        <v>-752.02</v>
       </c>
       <c r="AQ20" s="6">
         <f t="shared" ca="1" si="62"/>
-        <v>-1775.39</v>
+        <v>-991.31</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -9368,155 +9368,155 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11428571428571428</v>
+        <v>5.9952038369304558E-2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ref="H21:S21" ca="1" si="65">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C21)*$G21)*H$42,2)</f>
-        <v>-122.18</v>
+        <v>-43.75</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-84.92</v>
+        <v>-58.48</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-102.25</v>
+        <v>-69.31</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-124.78</v>
+        <v>-61.95</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-110.05</v>
+        <v>-50.25</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-105.71</v>
+        <v>-58.05</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-114.38</v>
+        <v>-67.150000000000006</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-73.650000000000006</v>
+        <v>-45.92</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-103.11</v>
+        <v>-42.02</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-91.85</v>
+        <v>-51.55</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-138.63999999999999</v>
+        <v>-58.05</v>
       </c>
       <c r="S21" s="3">
         <f t="shared" ca="1" si="65"/>
-        <v>-111.78</v>
+        <v>-66.709999999999994</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" ref="T21:AE21" ca="1" si="66">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D21)*$G21)*T$42,2)</f>
-        <v>-152.93</v>
+        <v>-69.650000000000006</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-101.62</v>
+        <v>-45.68</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-87.81</v>
+        <v>-66.03</v>
       </c>
       <c r="W21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-113.46</v>
+        <v>-71.459999999999994</v>
       </c>
       <c r="X21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-133.19999999999999</v>
+        <v>-52.01</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-113.46</v>
+        <v>-46.13</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-96.69</v>
+        <v>-54.72</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-104.58</v>
+        <v>-71.91</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-99.65</v>
+        <v>-67.39</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-79.92</v>
+        <v>-66.03</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-146.02000000000001</v>
+        <v>-58.79</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" ca="1" si="66"/>
-        <v>-123.33</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="AF21" s="6">
         <f t="shared" ref="AF21:AQ21" ca="1" si="67">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E21)*$G21)*AF$42,2)</f>
-        <v>-112.92</v>
+        <v>-58.83</v>
       </c>
       <c r="AG21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-120.45</v>
+        <v>-59.82</v>
       </c>
       <c r="AH21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-127.04</v>
+        <v>-48.86</v>
       </c>
       <c r="AI21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-120.45</v>
+        <v>-67.3</v>
       </c>
       <c r="AJ21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-109.16</v>
+        <v>-69.3</v>
       </c>
       <c r="AK21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-150.56</v>
+        <v>-71.790000000000006</v>
       </c>
       <c r="AL21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-144.91</v>
+        <v>-69.3</v>
       </c>
       <c r="AM21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-119.51</v>
+        <v>-59.82</v>
       </c>
       <c r="AN21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-82.81</v>
+        <v>-76.28</v>
       </c>
       <c r="AO21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-90.34</v>
+        <v>-45.37</v>
       </c>
       <c r="AP21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-123.27</v>
+        <v>-54.84</v>
       </c>
       <c r="AQ21" s="6">
         <f t="shared" ca="1" si="67"/>
-        <v>-135.5</v>
+        <v>-72.290000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -9539,155 +9539,155 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5714285714285719E-3</v>
+        <v>0.1342925659472422</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" ref="H22:S22" ca="1" si="68">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C22)*$G22)*H$42,2)</f>
-        <v>-9.16</v>
+        <v>-98.01</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-6.37</v>
+        <v>-131</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-7.67</v>
+        <v>-155.26</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-9.36</v>
+        <v>-138.76</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-8.25</v>
+        <v>-112.56</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-7.93</v>
+        <v>-130.03</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-8.58</v>
+        <v>-150.41</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-5.52</v>
+        <v>-102.86</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-7.73</v>
+        <v>-94.13</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-6.89</v>
+        <v>-115.47</v>
       </c>
       <c r="R22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-10.4</v>
+        <v>-130.03</v>
       </c>
       <c r="S22" s="3">
         <f t="shared" ca="1" si="68"/>
-        <v>-8.3800000000000008</v>
+        <v>-149.44</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" ref="T22:AE22" ca="1" si="69">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D22)*$G22)*T$42,2)</f>
-        <v>-11.47</v>
+        <v>-156.01</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-7.62</v>
+        <v>-102.32</v>
       </c>
       <c r="V22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-6.59</v>
+        <v>-147.91</v>
       </c>
       <c r="W22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-8.51</v>
+        <v>-160.06</v>
       </c>
       <c r="X22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-9.99</v>
+        <v>-116.5</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-8.51</v>
+        <v>-103.33</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-7.25</v>
+        <v>-122.58</v>
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-7.84</v>
+        <v>-161.08000000000001</v>
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-7.47</v>
+        <v>-150.94999999999999</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-5.99</v>
+        <v>-147.91</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-10.95</v>
+        <v>-131.69999999999999</v>
       </c>
       <c r="AE22" s="3">
         <f t="shared" ca="1" si="69"/>
-        <v>-9.25</v>
+        <v>-89.15</v>
       </c>
       <c r="AF22" s="6">
         <f t="shared" ref="AF22:AQ22" ca="1" si="70">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E22)*$G22)*AF$42,2)</f>
-        <v>-8.4700000000000006</v>
+        <v>-131.77000000000001</v>
       </c>
       <c r="AG22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-9.0299999999999994</v>
+        <v>-134</v>
       </c>
       <c r="AH22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-9.5299999999999994</v>
+        <v>-109.44</v>
       </c>
       <c r="AI22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-9.0299999999999994</v>
+        <v>-150.76</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-8.19</v>
+        <v>-155.22</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-11.29</v>
+        <v>-160.81</v>
       </c>
       <c r="AL22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-10.87</v>
+        <v>-155.22</v>
       </c>
       <c r="AM22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-8.9600000000000009</v>
+        <v>-134</v>
       </c>
       <c r="AN22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-6.21</v>
+        <v>-170.86</v>
       </c>
       <c r="AO22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-6.78</v>
+        <v>-101.62</v>
       </c>
       <c r="AP22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-9.25</v>
+        <v>-122.84</v>
       </c>
       <c r="AQ22" s="6">
         <f t="shared" ca="1" si="70"/>
-        <v>-10.16</v>
+        <v>-161.91999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -9710,155 +9710,155 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21714285714285714</v>
+        <v>0.1342925659472422</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ref="H23:S23" ca="1" si="71">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C23)*$G23)*H$42,2)</f>
-        <v>-232.14</v>
+        <v>-98.01</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-161.34</v>
+        <v>-131</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-194.27</v>
+        <v>-155.26</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-237.08</v>
+        <v>-138.76</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-209.09</v>
+        <v>-112.56</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-200.86</v>
+        <v>-130.03</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-217.32</v>
+        <v>-150.41</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-139.94</v>
+        <v>-102.86</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-195.92</v>
+        <v>-94.13</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-174.51</v>
+        <v>-115.47</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-263.42</v>
+        <v>-130.03</v>
       </c>
       <c r="S23" s="3">
         <f t="shared" ca="1" si="71"/>
-        <v>-212.38</v>
+        <v>-149.44</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" ref="T23:AE23" ca="1" si="72">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D23)*$G23)*T$42,2)</f>
-        <v>-290.57</v>
+        <v>-156.01</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-193.09</v>
+        <v>-102.32</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-166.84</v>
+        <v>-147.91</v>
       </c>
       <c r="W23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-215.58</v>
+        <v>-160.06</v>
       </c>
       <c r="X23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-253.07</v>
+        <v>-116.5</v>
       </c>
       <c r="Y23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-215.58</v>
+        <v>-103.33</v>
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-183.71</v>
+        <v>-122.58</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-198.71</v>
+        <v>-161.08000000000001</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-189.34</v>
+        <v>-150.94999999999999</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-151.84</v>
+        <v>-147.91</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-277.44</v>
+        <v>-131.69999999999999</v>
       </c>
       <c r="AE23" s="3">
         <f t="shared" ca="1" si="72"/>
-        <v>-234.33</v>
+        <v>-89.15</v>
       </c>
       <c r="AF23" s="6">
         <f t="shared" ref="AF23:AQ23" ca="1" si="73">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E23)*$G23)*AF$42,2)</f>
-        <v>-214.55</v>
+        <v>-131.77000000000001</v>
       </c>
       <c r="AG23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-228.85</v>
+        <v>-134</v>
       </c>
       <c r="AH23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-241.37</v>
+        <v>-109.44</v>
       </c>
       <c r="AI23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-228.85</v>
+        <v>-150.76</v>
       </c>
       <c r="AJ23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-207.4</v>
+        <v>-155.22</v>
       </c>
       <c r="AK23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-286.07</v>
+        <v>-160.81</v>
       </c>
       <c r="AL23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-275.33999999999997</v>
+        <v>-155.22</v>
       </c>
       <c r="AM23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-227.06</v>
+        <v>-134</v>
       </c>
       <c r="AN23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-157.34</v>
+        <v>-170.86</v>
       </c>
       <c r="AO23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-171.64</v>
+        <v>-101.62</v>
       </c>
       <c r="AP23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-234.22</v>
+        <v>-122.84</v>
       </c>
       <c r="AQ23" s="6">
         <f t="shared" ca="1" si="73"/>
-        <v>-257.45999999999998</v>
+        <v>-161.91999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -9881,155 +9881,155 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7142857142857141E-2</v>
+        <v>0.17745803357314149</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ref="H24:S24" ca="1" si="74">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C24)*$G24)*H$42,2)</f>
-        <v>-61.09</v>
+        <v>-129.51</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-42.46</v>
+        <v>-173.11</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-51.12</v>
+        <v>-205.16</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-62.39</v>
+        <v>-183.36</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-55.02</v>
+        <v>-148.74</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-52.86</v>
+        <v>-171.82</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-57.19</v>
+        <v>-198.75</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-36.83</v>
+        <v>-135.91999999999999</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-51.56</v>
+        <v>-124.38</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-45.92</v>
+        <v>-152.59</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-69.319999999999993</v>
+        <v>-171.82</v>
       </c>
       <c r="S24" s="3">
         <f t="shared" ca="1" si="74"/>
-        <v>-55.89</v>
+        <v>-197.47</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" ref="T24:AE24" ca="1" si="75">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D24)*$G24)*T$42,2)</f>
-        <v>-76.459999999999994</v>
+        <v>-206.16</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-50.81</v>
+        <v>-135.21</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-43.91</v>
+        <v>-195.45</v>
       </c>
       <c r="W24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-56.73</v>
+        <v>-211.51</v>
       </c>
       <c r="X24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-66.599999999999994</v>
+        <v>-153.94999999999999</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-56.73</v>
+        <v>-136.55000000000001</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-48.35</v>
+        <v>-161.97999999999999</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-52.29</v>
+        <v>-212.85</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-49.83</v>
+        <v>-199.46</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-39.96</v>
+        <v>-195.45</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-73.010000000000005</v>
+        <v>-174.03</v>
       </c>
       <c r="AE24" s="3">
         <f t="shared" ca="1" si="75"/>
-        <v>-61.67</v>
+        <v>-117.8</v>
       </c>
       <c r="AF24" s="6">
         <f t="shared" ref="AF24:AQ24" ca="1" si="76">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E24)*$G24)*AF$42,2)</f>
-        <v>-56.46</v>
+        <v>-174.13</v>
       </c>
       <c r="AG24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-60.22</v>
+        <v>-177.08</v>
       </c>
       <c r="AH24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-63.52</v>
+        <v>-144.61000000000001</v>
       </c>
       <c r="AI24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-60.22</v>
+        <v>-199.21</v>
       </c>
       <c r="AJ24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-54.58</v>
+        <v>-205.12</v>
       </c>
       <c r="AK24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-75.28</v>
+        <v>-212.49</v>
       </c>
       <c r="AL24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-72.459999999999994</v>
+        <v>-205.12</v>
       </c>
       <c r="AM24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-59.75</v>
+        <v>-177.08</v>
       </c>
       <c r="AN24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-41.4</v>
+        <v>-225.77</v>
       </c>
       <c r="AO24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-45.17</v>
+        <v>-134.28</v>
       </c>
       <c r="AP24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-61.64</v>
+        <v>-162.32</v>
       </c>
       <c r="AQ24" s="6">
         <f t="shared" ca="1" si="76"/>
-        <v>-67.75</v>
+        <v>-213.97</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -10052,155 +10052,155 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11428571428571428</v>
+        <v>0.2038369304556355</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" ref="H25:S25" ca="1" si="77">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C25)*$G25)*H$42,2)</f>
-        <v>-122.18</v>
+        <v>-148.76</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-84.92</v>
+        <v>-198.84</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-102.25</v>
+        <v>-235.66</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-124.78</v>
+        <v>-210.62</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-110.05</v>
+        <v>-170.85</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-105.71</v>
+        <v>-197.36</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-114.38</v>
+        <v>-228.3</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-73.650000000000006</v>
+        <v>-156.12</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-103.11</v>
+        <v>-142.87</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-91.85</v>
+        <v>-175.27</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-138.63999999999999</v>
+        <v>-197.36</v>
       </c>
       <c r="S25" s="3">
         <f t="shared" ca="1" si="77"/>
-        <v>-111.78</v>
+        <v>-226.82</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" ref="T25:AE25" ca="1" si="78">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D25)*$G25)*T$42,2)</f>
-        <v>-152.93</v>
+        <v>-236.8</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-101.62</v>
+        <v>-155.31</v>
       </c>
       <c r="V25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-87.81</v>
+        <v>-224.5</v>
       </c>
       <c r="W25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-113.46</v>
+        <v>-242.95</v>
       </c>
       <c r="X25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-133.19999999999999</v>
+        <v>-176.83</v>
       </c>
       <c r="Y25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-113.46</v>
+        <v>-156.84</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-96.69</v>
+        <v>-186.06</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-104.58</v>
+        <v>-244.49</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-99.65</v>
+        <v>-229.11</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-79.92</v>
+        <v>-224.5</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-146.02000000000001</v>
+        <v>-199.9</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" ca="1" si="78"/>
-        <v>-123.33</v>
+        <v>-135.32</v>
       </c>
       <c r="AF25" s="6">
         <f t="shared" ref="AF25:AQ25" ca="1" si="79">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E25)*$G25)*AF$42,2)</f>
-        <v>-112.92</v>
+        <v>-200.01</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-120.45</v>
+        <v>-203.4</v>
       </c>
       <c r="AH25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-127.04</v>
+        <v>-166.11</v>
       </c>
       <c r="AI25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-120.45</v>
+        <v>-228.83</v>
       </c>
       <c r="AJ25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-109.16</v>
+        <v>-235.61</v>
       </c>
       <c r="AK25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-150.56</v>
+        <v>-244.08</v>
       </c>
       <c r="AL25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-144.91</v>
+        <v>-235.61</v>
       </c>
       <c r="AM25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-119.51</v>
+        <v>-203.4</v>
       </c>
       <c r="AN25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-82.81</v>
+        <v>-259.33999999999997</v>
       </c>
       <c r="AO25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-90.34</v>
+        <v>-154.25</v>
       </c>
       <c r="AP25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-123.27</v>
+        <v>-186.45</v>
       </c>
       <c r="AQ25" s="6">
         <f t="shared" ca="1" si="79"/>
-        <v>-135.5</v>
+        <v>-245.78</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -10223,155 +10223,155 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>4.0767386091127102E-2</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ref="H26:S26" ca="1" si="80">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C26)*$G26)*H$42,2)</f>
-        <v>-192.43</v>
+        <v>-29.75</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-133.74</v>
+        <v>-39.770000000000003</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-161.04</v>
+        <v>-47.13</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-196.52</v>
+        <v>-42.12</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-173.32</v>
+        <v>-34.17</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-166.5</v>
+        <v>-39.47</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-180.15</v>
+        <v>-45.66</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-116</v>
+        <v>-31.22</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-162.4</v>
+        <v>-28.57</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-144.66</v>
+        <v>-35.049999999999997</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-218.36</v>
+        <v>-39.47</v>
       </c>
       <c r="S26" s="3">
         <f t="shared" ca="1" si="80"/>
-        <v>-176.05</v>
+        <v>-45.36</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" ref="T26:AE26" ca="1" si="81">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D26)*$G26)*T$42,2)</f>
-        <v>-240.86</v>
+        <v>-47.36</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-160.06</v>
+        <v>-31.06</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-138.30000000000001</v>
+        <v>-44.9</v>
       </c>
       <c r="W26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-178.71</v>
+        <v>-48.59</v>
       </c>
       <c r="X26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-209.78</v>
+        <v>-35.369999999999997</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-178.71</v>
+        <v>-31.37</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-152.29</v>
+        <v>-37.21</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-164.72</v>
+        <v>-48.9</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-156.94999999999999</v>
+        <v>-45.82</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-125.87</v>
+        <v>-44.9</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-229.99</v>
+        <v>-39.979999999999997</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" ca="1" si="81"/>
-        <v>-194.25</v>
+        <v>-27.06</v>
       </c>
       <c r="AF26" s="6">
         <f t="shared" ref="AF26:AQ26" ca="1" si="82">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E26)*$G26)*AF$42,2)</f>
-        <v>-177.85</v>
+        <v>-40</v>
       </c>
       <c r="AG26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-189.71</v>
+        <v>-40.68</v>
       </c>
       <c r="AH26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-200.08</v>
+        <v>-33.22</v>
       </c>
       <c r="AI26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-189.71</v>
+        <v>-45.77</v>
       </c>
       <c r="AJ26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-171.92</v>
+        <v>-47.12</v>
       </c>
       <c r="AK26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-237.13</v>
+        <v>-48.82</v>
       </c>
       <c r="AL26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-228.24</v>
+        <v>-47.12</v>
       </c>
       <c r="AM26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-188.22</v>
+        <v>-40.68</v>
       </c>
       <c r="AN26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-130.41999999999999</v>
+        <v>-51.87</v>
       </c>
       <c r="AO26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-142.28</v>
+        <v>-30.85</v>
       </c>
       <c r="AP26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-194.15</v>
+        <v>-37.29</v>
       </c>
       <c r="AQ26" s="6">
         <f t="shared" ca="1" si="82"/>
-        <v>-213.42</v>
+        <v>-49.16</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -10394,155 +10394,155 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17714285714285713</v>
+        <v>8.6330935251798566E-2</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ref="H27:S27" ca="1" si="83">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C27)*$G27)*H$42,2)</f>
-        <v>-189.37</v>
+        <v>-63</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-131.62</v>
+        <v>-84.21</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-158.47999999999999</v>
+        <v>-99.81</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-193.4</v>
+        <v>-89.2</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-170.57</v>
+        <v>-72.36</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-163.86</v>
+        <v>-83.59</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-177.29</v>
+        <v>-96.69</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-114.16</v>
+        <v>-66.12</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-159.83000000000001</v>
+        <v>-60.51</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-142.37</v>
+        <v>-74.23</v>
       </c>
       <c r="R27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-214.89</v>
+        <v>-83.59</v>
       </c>
       <c r="S27" s="3">
         <f t="shared" ca="1" si="83"/>
-        <v>-173.26</v>
+        <v>-96.07</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" ref="T27:AE27" ca="1" si="84">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D27)*$G27)*T$42,2)</f>
-        <v>-237.04</v>
+        <v>-100.29</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-157.52000000000001</v>
+        <v>-65.78</v>
       </c>
       <c r="V27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-136.11000000000001</v>
+        <v>-95.08</v>
       </c>
       <c r="W27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-175.87</v>
+        <v>-102.9</v>
       </c>
       <c r="X27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-206.45</v>
+        <v>-74.89</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-175.87</v>
+        <v>-66.430000000000007</v>
       </c>
       <c r="Z27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-149.87</v>
+        <v>-78.8</v>
       </c>
       <c r="AA27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-162.11000000000001</v>
+        <v>-103.55</v>
       </c>
       <c r="AB27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-154.46</v>
+        <v>-97.04</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-123.87</v>
+        <v>-95.08</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-226.34</v>
+        <v>-84.66</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" ca="1" si="84"/>
-        <v>-191.16</v>
+        <v>-57.31</v>
       </c>
       <c r="AF27" s="6">
         <f t="shared" ref="AF27:AQ27" ca="1" si="85">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E27)*$G27)*AF$42,2)</f>
-        <v>-175.03</v>
+        <v>-84.71</v>
       </c>
       <c r="AG27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-186.7</v>
+        <v>-86.15</v>
       </c>
       <c r="AH27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-196.91</v>
+        <v>-70.349999999999994</v>
       </c>
       <c r="AI27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-186.7</v>
+        <v>-96.91</v>
       </c>
       <c r="AJ27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-169.19</v>
+        <v>-99.79</v>
       </c>
       <c r="AK27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-233.37</v>
+        <v>-103.38</v>
       </c>
       <c r="AL27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-224.62</v>
+        <v>-99.79</v>
       </c>
       <c r="AM27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-185.24</v>
+        <v>-86.15</v>
       </c>
       <c r="AN27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-128.35</v>
+        <v>-109.84</v>
       </c>
       <c r="AO27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-140.02000000000001</v>
+        <v>-65.33</v>
       </c>
       <c r="AP27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-191.07</v>
+        <v>-78.97</v>
       </c>
       <c r="AQ27" s="6">
         <f t="shared" ca="1" si="85"/>
-        <v>-210.03</v>
+        <v>-104.09</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -10565,155 +10565,155 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13142857142857142</v>
+        <v>0.16306954436450841</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" ref="H28:S28" ca="1" si="86">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C28)*$G28)*H$42,2)</f>
-        <v>-140.5</v>
+        <v>-119.01</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-97.65</v>
+        <v>-159.07</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-117.58</v>
+        <v>-188.53</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-143.49</v>
+        <v>-168.5</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-126.55</v>
+        <v>-136.68</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-121.57</v>
+        <v>-157.88999999999999</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-131.54</v>
+        <v>-182.64</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-84.7</v>
+        <v>-124.9</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-118.58</v>
+        <v>-114.29</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-105.63</v>
+        <v>-140.22</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-159.44</v>
+        <v>-157.88999999999999</v>
       </c>
       <c r="S28" s="3">
         <f t="shared" ca="1" si="86"/>
-        <v>-128.55000000000001</v>
+        <v>-181.46</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" ref="T28:AE28" ca="1" si="87">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D28)*$G28)*T$42,2)</f>
-        <v>-175.87</v>
+        <v>-189.44</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-116.87</v>
+        <v>-124.24</v>
       </c>
       <c r="V28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-100.98</v>
+        <v>-179.6</v>
       </c>
       <c r="W28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-130.47999999999999</v>
+        <v>-194.36</v>
       </c>
       <c r="X28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-153.18</v>
+        <v>-141.47</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-130.47999999999999</v>
+        <v>-125.47</v>
       </c>
       <c r="Z28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-111.19</v>
+        <v>-148.85</v>
       </c>
       <c r="AA28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-120.27</v>
+        <v>-195.59</v>
       </c>
       <c r="AB28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-114.6</v>
+        <v>-183.29</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-91.91</v>
+        <v>-179.6</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-167.93</v>
+        <v>-159.91999999999999</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" ca="1" si="87"/>
-        <v>-141.83000000000001</v>
+        <v>-108.25</v>
       </c>
       <c r="AF28" s="6">
         <f t="shared" ref="AF28:AQ28" ca="1" si="88">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E28)*$G28)*AF$42,2)</f>
-        <v>-129.86000000000001</v>
+        <v>-160.01</v>
       </c>
       <c r="AG28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-138.52000000000001</v>
+        <v>-162.72</v>
       </c>
       <c r="AH28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-146.09</v>
+        <v>-132.88999999999999</v>
       </c>
       <c r="AI28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-138.52000000000001</v>
+        <v>-183.06</v>
       </c>
       <c r="AJ28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-125.53</v>
+        <v>-188.48</v>
       </c>
       <c r="AK28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-173.14</v>
+        <v>-195.26</v>
       </c>
       <c r="AL28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-166.65</v>
+        <v>-188.48</v>
       </c>
       <c r="AM28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-137.43</v>
+        <v>-162.72</v>
       </c>
       <c r="AN28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-95.23</v>
+        <v>-207.47</v>
       </c>
       <c r="AO28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-103.89</v>
+        <v>-123.4</v>
       </c>
       <c r="AP28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-141.76</v>
+        <v>-149.16</v>
       </c>
       <c r="AQ28" s="6">
         <f t="shared" ca="1" si="88"/>
-        <v>-155.83000000000001</v>
+        <v>-196.62</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -10736,155 +10736,155 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15695067264573992</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ref="H29:S29" ca="1" si="91">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C29)*$G29)*H$42,2)</f>
-        <v>-136.03</v>
+        <v>-127.75</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-94.55</v>
+        <v>-170.75</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-113.84</v>
+        <v>-202.37</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-138.93</v>
+        <v>-180.87</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-122.53</v>
+        <v>-146.72</v>
       </c>
       <c r="M29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-117.7</v>
+        <v>-169.49</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-127.35</v>
+        <v>-196.05</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-82</v>
+        <v>-134.07</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-114.81</v>
+        <v>-122.69</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-102.27</v>
+        <v>-150.52000000000001</v>
       </c>
       <c r="R29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-154.36000000000001</v>
+        <v>-169.49</v>
       </c>
       <c r="S29" s="3">
         <f t="shared" ca="1" si="91"/>
-        <v>-124.45</v>
+        <v>-194.78</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" ref="T29:AE29" ca="1" si="92">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D29)*$G29)*T$42,2)</f>
-        <v>-172.72</v>
+        <v>-206.28</v>
       </c>
       <c r="U29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-114.78</v>
+        <v>-135.29</v>
       </c>
       <c r="V29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-99.18</v>
+        <v>-195.56</v>
       </c>
       <c r="W29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-128.15</v>
+        <v>-211.64</v>
       </c>
       <c r="X29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-150.43</v>
+        <v>-154.04</v>
       </c>
       <c r="Y29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-128.15</v>
+        <v>-136.63</v>
       </c>
       <c r="Z29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-109.2</v>
+        <v>-162.08000000000001</v>
       </c>
       <c r="AA29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-118.12</v>
+        <v>-212.98</v>
       </c>
       <c r="AB29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-112.55</v>
+        <v>-199.58</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-90.26</v>
+        <v>-195.56</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-164.92</v>
+        <v>-174.13</v>
       </c>
       <c r="AE29" s="3">
         <f t="shared" ca="1" si="92"/>
-        <v>-139.29</v>
+        <v>-117.87</v>
       </c>
       <c r="AF29" s="6">
         <f t="shared" ref="AF29:AQ29" ca="1" si="93">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E29)*$G29)*AF$42,2)</f>
-        <v>-127.93</v>
+        <v>-174.77</v>
       </c>
       <c r="AG29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-136.46</v>
+        <v>-177.73</v>
       </c>
       <c r="AH29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-143.91999999999999</v>
+        <v>-145.15</v>
       </c>
       <c r="AI29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-136.46</v>
+        <v>-199.95</v>
       </c>
       <c r="AJ29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-123.66</v>
+        <v>-205.87</v>
       </c>
       <c r="AK29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-170.57</v>
+        <v>-213.28</v>
       </c>
       <c r="AL29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-164.17</v>
+        <v>-205.87</v>
       </c>
       <c r="AM29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-135.38999999999999</v>
+        <v>-177.73</v>
       </c>
       <c r="AN29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-93.81</v>
+        <v>-226.6</v>
       </c>
       <c r="AO29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-102.34</v>
+        <v>-134.78</v>
       </c>
       <c r="AP29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-139.65</v>
+        <v>-162.91999999999999</v>
       </c>
       <c r="AQ29" s="6">
         <f t="shared" ca="1" si="93"/>
-        <v>-153.51</v>
+        <v>-214.76</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -10907,155 +10907,155 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43049327354260092</v>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ref="H30:S30" ca="1" si="94">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C30)*$G30)*H$42,2)</f>
-        <v>-373.12</v>
+        <v>-44.82</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-259.33</v>
+        <v>-59.91</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-312.25</v>
+        <v>-71.010000000000005</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-381.05</v>
+        <v>-63.46</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-336.07</v>
+        <v>-51.48</v>
       </c>
       <c r="M30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-322.83999999999997</v>
+        <v>-59.47</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-349.3</v>
+        <v>-68.790000000000006</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-224.93</v>
+        <v>-47.04</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-314.89999999999998</v>
+        <v>-43.05</v>
       </c>
       <c r="Q30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-280.5</v>
+        <v>-52.81</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-423.39</v>
+        <v>-59.47</v>
       </c>
       <c r="S30" s="3">
         <f t="shared" ca="1" si="94"/>
-        <v>-341.36</v>
+        <v>-68.349999999999994</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" ref="T30:AE30" ca="1" si="95">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D30)*$G30)*T$42,2)</f>
-        <v>-473.75</v>
+        <v>-72.38</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-314.81</v>
+        <v>-47.47</v>
       </c>
       <c r="V30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-272.02</v>
+        <v>-68.62</v>
       </c>
       <c r="W30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-351.49</v>
+        <v>-74.260000000000005</v>
       </c>
       <c r="X30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-412.62</v>
+        <v>-54.05</v>
       </c>
       <c r="Y30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-351.49</v>
+        <v>-47.94</v>
       </c>
       <c r="Z30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-299.52999999999997</v>
+        <v>-56.87</v>
       </c>
       <c r="AA30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-323.98</v>
+        <v>-74.73</v>
       </c>
       <c r="AB30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-308.7</v>
+        <v>-70.03</v>
       </c>
       <c r="AC30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-247.57</v>
+        <v>-68.62</v>
       </c>
       <c r="AD30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-452.35</v>
+        <v>-61.1</v>
       </c>
       <c r="AE30" s="3">
         <f t="shared" ca="1" si="95"/>
-        <v>-382.05</v>
+        <v>-41.36</v>
       </c>
       <c r="AF30" s="6">
         <f t="shared" ref="AF30:AQ30" ca="1" si="96">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E30)*$G30)*AF$42,2)</f>
-        <v>-350.89</v>
+        <v>-61.32</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-374.28</v>
+        <v>-62.36</v>
       </c>
       <c r="AH30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-394.75</v>
+        <v>-50.93</v>
       </c>
       <c r="AI30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-374.28</v>
+        <v>-70.16</v>
       </c>
       <c r="AJ30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-339.19</v>
+        <v>-72.23</v>
       </c>
       <c r="AK30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-467.85</v>
+        <v>-74.83</v>
       </c>
       <c r="AL30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-450.3</v>
+        <v>-72.23</v>
       </c>
       <c r="AM30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-371.36</v>
+        <v>-62.36</v>
       </c>
       <c r="AN30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-257.32</v>
+        <v>-79.510000000000005</v>
       </c>
       <c r="AO30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-280.70999999999998</v>
+        <v>-47.29</v>
       </c>
       <c r="AP30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-383.05</v>
+        <v>-57.16</v>
       </c>
       <c r="AQ30" s="6">
         <f t="shared" ca="1" si="96"/>
-        <v>-421.06</v>
+        <v>-75.349999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -11078,155 +11078,155 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.417040358744394E-2</v>
+        <v>0.35984848484848486</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ref="H31:S31" ca="1" si="97">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C31)*$G31)*H$42,2)</f>
-        <v>-81.62</v>
+        <v>-212.91</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-56.73</v>
+        <v>-284.58999999999997</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-68.31</v>
+        <v>-337.29</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-83.36</v>
+        <v>-301.45</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-73.52</v>
+        <v>-244.53</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-70.62</v>
+        <v>-282.48</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-76.41</v>
+        <v>-326.75</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-49.2</v>
+        <v>-223.45</v>
       </c>
       <c r="P31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-68.88</v>
+        <v>-204.48</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-61.36</v>
+        <v>-250.86</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-92.62</v>
+        <v>-282.48</v>
       </c>
       <c r="S31" s="3">
         <f t="shared" ca="1" si="97"/>
-        <v>-74.67</v>
+        <v>-324.64</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" ref="T31:AE31" ca="1" si="98">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D31)*$G31)*T$42,2)</f>
-        <v>-103.63</v>
+        <v>-343.8</v>
       </c>
       <c r="U31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-68.87</v>
+        <v>-225.48</v>
       </c>
       <c r="V31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-59.51</v>
+        <v>-325.94</v>
       </c>
       <c r="W31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-76.89</v>
+        <v>-352.73</v>
       </c>
       <c r="X31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-90.26</v>
+        <v>-256.73</v>
       </c>
       <c r="Y31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-76.89</v>
+        <v>-227.71</v>
       </c>
       <c r="Z31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-65.52</v>
+        <v>-270.13</v>
       </c>
       <c r="AA31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-70.87</v>
+        <v>-354.96</v>
       </c>
       <c r="AB31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-67.53</v>
+        <v>-332.64</v>
       </c>
       <c r="AC31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-54.16</v>
+        <v>-325.94</v>
       </c>
       <c r="AD31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-98.95</v>
+        <v>-290.22000000000003</v>
       </c>
       <c r="AE31" s="3">
         <f t="shared" ca="1" si="98"/>
-        <v>-83.57</v>
+        <v>-196.46</v>
       </c>
       <c r="AF31" s="6">
         <f t="shared" ref="AF31:AQ31" ca="1" si="99">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E31)*$G31)*AF$42,2)</f>
-        <v>-76.760000000000005</v>
+        <v>-291.27999999999997</v>
       </c>
       <c r="AG31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-81.87</v>
+        <v>-296.22000000000003</v>
       </c>
       <c r="AH31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-86.35</v>
+        <v>-241.91</v>
       </c>
       <c r="AI31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-81.87</v>
+        <v>-333.24</v>
       </c>
       <c r="AJ31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-74.2</v>
+        <v>-343.12</v>
       </c>
       <c r="AK31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-102.34</v>
+        <v>-355.46</v>
       </c>
       <c r="AL31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-98.5</v>
+        <v>-343.12</v>
       </c>
       <c r="AM31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-81.23</v>
+        <v>-296.22000000000003</v>
       </c>
       <c r="AN31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-56.29</v>
+        <v>-377.67</v>
       </c>
       <c r="AO31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-61.41</v>
+        <v>-224.63</v>
       </c>
       <c r="AP31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-83.79</v>
+        <v>-271.52999999999997</v>
       </c>
       <c r="AQ31" s="6">
         <f t="shared" ca="1" si="99"/>
-        <v>-92.11</v>
+        <v>-357.93</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -11249,155 +11249,155 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18834080717488788</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ref="H32:S32" ca="1" si="100">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C32)*$G32)*H$42,2)</f>
-        <v>-163.24</v>
+        <v>-13.45</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-113.46</v>
+        <v>-17.97</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-136.61000000000001</v>
+        <v>-21.3</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-166.71</v>
+        <v>-19.04</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-147.03</v>
+        <v>-15.44</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-141.24</v>
+        <v>-17.84</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-152.82</v>
+        <v>-20.64</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-98.41</v>
+        <v>-14.11</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-137.77000000000001</v>
+        <v>-12.91</v>
       </c>
       <c r="Q32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-122.72</v>
+        <v>-15.84</v>
       </c>
       <c r="R32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-185.23</v>
+        <v>-17.84</v>
       </c>
       <c r="S32" s="3">
         <f t="shared" ca="1" si="100"/>
-        <v>-149.35</v>
+        <v>-20.5</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" ref="T32:AE32" ca="1" si="101">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D32)*$G32)*T$42,2)</f>
-        <v>-207.26</v>
+        <v>-21.71</v>
       </c>
       <c r="U32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-137.72999999999999</v>
+        <v>-14.24</v>
       </c>
       <c r="V32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-119.01</v>
+        <v>-20.59</v>
       </c>
       <c r="W32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-153.78</v>
+        <v>-22.28</v>
       </c>
       <c r="X32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-180.52</v>
+        <v>-16.21</v>
       </c>
       <c r="Y32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-153.78</v>
+        <v>-14.38</v>
       </c>
       <c r="Z32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-131.04</v>
+        <v>-17.059999999999999</v>
       </c>
       <c r="AA32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-141.74</v>
+        <v>-22.42</v>
       </c>
       <c r="AB32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-135.06</v>
+        <v>-21.01</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-108.31</v>
+        <v>-20.59</v>
       </c>
       <c r="AD32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-197.9</v>
+        <v>-18.329999999999998</v>
       </c>
       <c r="AE32" s="3">
         <f t="shared" ca="1" si="101"/>
-        <v>-167.15</v>
+        <v>-12.41</v>
       </c>
       <c r="AF32" s="6">
         <f t="shared" ref="AF32:AQ32" ca="1" si="102">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E32)*$G32)*AF$42,2)</f>
-        <v>-153.51</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="AG32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-163.75</v>
+        <v>-18.71</v>
       </c>
       <c r="AH32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-172.7</v>
+        <v>-15.28</v>
       </c>
       <c r="AI32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-163.75</v>
+        <v>-21.05</v>
       </c>
       <c r="AJ32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-148.4</v>
+        <v>-21.67</v>
       </c>
       <c r="AK32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-204.68</v>
+        <v>-22.45</v>
       </c>
       <c r="AL32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-197.01</v>
+        <v>-21.67</v>
       </c>
       <c r="AM32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-162.47</v>
+        <v>-18.71</v>
       </c>
       <c r="AN32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-112.58</v>
+        <v>-23.85</v>
       </c>
       <c r="AO32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-122.81</v>
+        <v>-14.19</v>
       </c>
       <c r="AP32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-167.58</v>
+        <v>-17.149999999999999</v>
       </c>
       <c r="AQ32" s="6">
         <f t="shared" ca="1" si="102"/>
-        <v>-184.22</v>
+        <v>-22.61</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -11420,155 +11420,155 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13004484304932734</v>
+        <v>0.32575757575757575</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" ref="H33:S33" ca="1" si="103">ROUND((SUMIFS($C$2:$C$33,$C$2:$C$33,$C33)*$G33)*H$42,2)</f>
-        <v>-112.71</v>
+        <v>-192.74</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-78.34</v>
+        <v>-257.63</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-94.33</v>
+        <v>-305.33999999999997</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-115.11</v>
+        <v>-272.89</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-101.52</v>
+        <v>-221.37</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-97.52</v>
+        <v>-255.72</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-105.52</v>
+        <v>-295.79000000000002</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-67.95</v>
+        <v>-202.28</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-95.13</v>
+        <v>-185.11</v>
       </c>
       <c r="Q33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-84.73</v>
+        <v>-227.09</v>
       </c>
       <c r="R33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-127.9</v>
+        <v>-255.72</v>
       </c>
       <c r="S33" s="3">
         <f t="shared" ca="1" si="103"/>
-        <v>-103.12</v>
+        <v>-293.88</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" ref="T33:AE33" ca="1" si="104">ROUND((SUMIFS($D$2:$D$33,$D$2:$D$33,$D33)*$G33)*T$42,2)</f>
-        <v>-143.11000000000001</v>
+        <v>-311.23</v>
       </c>
       <c r="U33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-95.1</v>
+        <v>-204.12</v>
       </c>
       <c r="V33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-82.17</v>
+        <v>-295.06</v>
       </c>
       <c r="W33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-106.18</v>
+        <v>-319.31</v>
       </c>
       <c r="X33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-124.65</v>
+        <v>-232.41</v>
       </c>
       <c r="Y33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-106.18</v>
+        <v>-206.14</v>
       </c>
       <c r="Z33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-90.48</v>
+        <v>-244.54</v>
       </c>
       <c r="AA33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-97.87</v>
+        <v>-321.33</v>
       </c>
       <c r="AB33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-93.25</v>
+        <v>-301.12</v>
       </c>
       <c r="AC33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-74.790000000000006</v>
+        <v>-295.06</v>
       </c>
       <c r="AD33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-136.65</v>
+        <v>-262.73</v>
       </c>
       <c r="AE33" s="3">
         <f t="shared" ca="1" si="104"/>
-        <v>-115.41</v>
+        <v>-177.84</v>
       </c>
       <c r="AF33" s="6">
         <f t="shared" ref="AF33:AQ33" ca="1" si="105">ROUND((SUMIFS($E$2:$E$33,$E$2:$E$33,$E33)*$G33)*AF$42,2)</f>
-        <v>-106</v>
+        <v>-263.68</v>
       </c>
       <c r="AG33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-113.06</v>
+        <v>-268.14999999999998</v>
       </c>
       <c r="AH33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-119.25</v>
+        <v>-218.99</v>
       </c>
       <c r="AI33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-113.06</v>
+        <v>-301.67</v>
       </c>
       <c r="AJ33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-102.46</v>
+        <v>-310.61</v>
       </c>
       <c r="AK33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-141.33000000000001</v>
+        <v>-321.77999999999997</v>
       </c>
       <c r="AL33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-136.03</v>
+        <v>-310.61</v>
       </c>
       <c r="AM33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-112.18</v>
+        <v>-268.14999999999998</v>
       </c>
       <c r="AN33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-77.73</v>
+        <v>-341.89</v>
       </c>
       <c r="AO33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-84.8</v>
+        <v>-203.35</v>
       </c>
       <c r="AP33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-115.71</v>
+        <v>-245.81</v>
       </c>
       <c r="AQ33" s="6">
         <f t="shared" ca="1" si="105"/>
-        <v>-127.2</v>
+        <v>-324.02</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
@@ -11588,293 +11588,293 @@
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H41" s="3">
         <f t="shared" ref="H41:AQ41" ca="1" si="106">RANDBETWEEN(80,160)</f>
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="O41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="P41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="Q41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="R41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="S41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="W41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="X41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Y41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="Z41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="AA41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AB41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="AC41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AD41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AE41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AF41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AH41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AI41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AJ41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AK41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AL41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AM41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AN41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="AO41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AP41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AQ41" s="3">
         <f t="shared" ca="1" si="106"/>
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="H42" s="3">
         <f t="shared" ref="H42:S42" ca="1" si="107">H41/SUM($H$41:$S$41)</f>
-        <v>9.5205941931127622E-2</v>
+        <v>6.4993564993564998E-2</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>6.6171505739365297E-2</v>
+        <v>8.6872586872586879E-2</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>7.967589466576637E-2</v>
+        <v>0.10296010296010295</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>9.7231600270087773E-2</v>
+        <v>9.2020592020592026E-2</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>8.5752869682646865E-2</v>
+        <v>7.4646074646074645E-2</v>
       </c>
       <c r="M42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>8.237677245104659E-2</v>
+        <v>8.6229086229086233E-2</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>8.9128966914247126E-2</v>
+        <v>9.9742599742599747E-2</v>
       </c>
       <c r="O42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>5.7393652937204588E-2</v>
+        <v>6.8211068211068204E-2</v>
       </c>
       <c r="P42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>8.0351114112086425E-2</v>
+        <v>6.2419562419562417E-2</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>7.1573261309925723E-2</v>
+        <v>7.6576576576576572E-2</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>0.10803511141120864</v>
+        <v>8.6229086229086233E-2</v>
       </c>
       <c r="S42" s="3">
         <f t="shared" ca="1" si="107"/>
-        <v>8.7103308575286975E-2</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" ref="T42:AE42" ca="1" si="108">T41/SUM($T$41:$AE$41)</f>
-        <v>0.11305616338439095</v>
+        <v>9.8151688973868709E-2</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>7.5127644055433984E-2</v>
+        <v>6.4372211599745058E-2</v>
       </c>
       <c r="V42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>6.4916119620714807E-2</v>
+        <v>9.3052899936265143E-2</v>
       </c>
       <c r="W42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>8.3880379285193291E-2</v>
+        <v>0.10070108349267048</v>
       </c>
       <c r="X42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>9.8468271334792121E-2</v>
+        <v>7.3295092415551308E-2</v>
       </c>
       <c r="Y42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>8.3880379285193291E-2</v>
+        <v>6.5009560229445512E-2</v>
       </c>
       <c r="Z42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>7.148067104303428E-2</v>
+        <v>7.7119184193753978E-2</v>
       </c>
       <c r="AA42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>7.7315827862873818E-2</v>
+        <v>0.10133843212237094</v>
       </c>
       <c r="AB42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>7.36688548504741E-2</v>
+        <v>9.4964945825366479E-2</v>
       </c>
       <c r="AC42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>5.9080962800875277E-2</v>
+        <v>9.3052899936265143E-2</v>
       </c>
       <c r="AD42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>0.10795040116703136</v>
+        <v>8.2855321861057998E-2</v>
       </c>
       <c r="AE42" s="3">
         <f t="shared" ca="1" si="108"/>
-        <v>9.1174325309992713E-2</v>
+        <v>5.6086679413639262E-2</v>
       </c>
       <c r="AF42" s="3">
         <f t="shared" ref="AF42:AQ42" ca="1" si="109">AF41/SUM($AF$41:$AQ$41)</f>
-        <v>7.8585461689587424E-2</v>
+        <v>7.8042328042328038E-2</v>
       </c>
       <c r="AG42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>8.3824492468893258E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="AH42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>8.8408644400785857E-2</v>
+        <v>6.4814814814814811E-2</v>
       </c>
       <c r="AI42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>8.3824492468893258E-2</v>
+        <v>8.9285714285714288E-2</v>
       </c>
       <c r="AJ42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>7.5965946299934514E-2</v>
+        <v>9.1931216931216933E-2</v>
       </c>
       <c r="AK42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>0.10478061558611657</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="AL42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>0.1008513425016372</v>
+        <v>9.1931216931216933E-2</v>
       </c>
       <c r="AM42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>8.3169613621480024E-2</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="AN42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>5.762933857236411E-2</v>
+        <v>0.10119047619047619</v>
       </c>
       <c r="AO42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>6.2868369351669937E-2</v>
+        <v>6.0185185185185182E-2</v>
       </c>
       <c r="AP42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>8.5789129011132934E-2</v>
+        <v>7.2751322751322747E-2</v>
       </c>
       <c r="AQ42" s="3">
         <f t="shared" ca="1" si="109"/>
-        <v>9.4302554027504912E-2</v>
+        <v>9.5899470899470901E-2</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
@@ -13340,7 +13340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K23"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13383,33 +13383,87 @@
       <c r="K1" s="5">
         <v>45901</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
+      <c r="L1" s="5">
+        <v>45931</v>
+      </c>
+      <c r="M1" s="5">
+        <v>45962</v>
+      </c>
+      <c r="N1" s="5">
+        <v>45992</v>
+      </c>
+      <c r="O1" s="5">
+        <v>46023</v>
+      </c>
+      <c r="P1" s="5">
+        <v>46054</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>46082</v>
+      </c>
+      <c r="R1" s="5">
+        <v>46113</v>
+      </c>
+      <c r="S1" s="5">
+        <v>46143</v>
+      </c>
+      <c r="T1" s="5">
+        <v>46174</v>
+      </c>
+      <c r="U1" s="5">
+        <v>46204</v>
+      </c>
+      <c r="V1" s="5">
+        <v>46235</v>
+      </c>
+      <c r="W1" s="5">
+        <v>46266</v>
+      </c>
+      <c r="X1" s="5">
+        <v>46296</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>46327</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>46357</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>46388</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>46419</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>46447</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>46478</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>46508</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>46539</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>46569</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>46600</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>46631</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>46661</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>46692</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>46722</v>
+      </c>
       <c r="AM1" s="5"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -13446,33 +13500,87 @@
       <c r="K2" s="3">
         <v>922.47</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
+      <c r="L2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1608.95</v>
+      </c>
+      <c r="N2" s="3">
+        <v>976.1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1480.23</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1415.88</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="R2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1608.95</v>
+      </c>
+      <c r="T2" s="3">
+        <v>976.1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1480.23</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1415.88</v>
+      </c>
+      <c r="W2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="X2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1608.95</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>976.1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1480.23</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1608.95</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>976.1</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1480.23</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>922.47</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1608.95</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>976.1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1480.23</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1415.88</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>922.47</v>
+      </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -13508,33 +13616,87 @@
       <c r="K3" s="3">
         <v>709.59</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
+      <c r="L3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1237.6500000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>750.84</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1138.6400000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1089.1400000000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="R3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1237.6500000000001</v>
+      </c>
+      <c r="T3" s="3">
+        <v>750.84</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1138.6400000000001</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1089.1400000000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="X3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1237.6500000000001</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>750.84</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1138.6400000000001</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1237.6500000000001</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>750.84</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1138.6400000000001</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>709.59</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1237.6500000000001</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>750.84</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1138.6400000000001</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1089.1400000000001</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>709.59</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13570,33 +13732,87 @@
       <c r="K4" s="3">
         <v>585.41</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
+      <c r="L4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1021.07</v>
+      </c>
+      <c r="N4" s="3">
+        <v>619.45000000000005</v>
+      </c>
+      <c r="O4" s="3">
+        <v>939.38</v>
+      </c>
+      <c r="P4" s="3">
+        <v>898.54</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="R4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1021.07</v>
+      </c>
+      <c r="T4" s="3">
+        <v>619.45000000000005</v>
+      </c>
+      <c r="U4" s="3">
+        <v>939.38</v>
+      </c>
+      <c r="V4" s="3">
+        <v>898.54</v>
+      </c>
+      <c r="W4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="X4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1021.07</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>619.45000000000005</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>939.38</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1021.07</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>619.45000000000005</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>939.38</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>585.41</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1021.07</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>619.45000000000005</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>939.38</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>898.54</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>585.41</v>
+      </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -13632,33 +13848,87 @@
       <c r="K5" s="3">
         <v>1756.23</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
+      <c r="L5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3063.2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1858.34</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2818.14</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2695.61</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3063.2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1858.34</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2818.14</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2695.61</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3063.2</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1858.34</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2818.14</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>3063.2</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1858.34</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>2818.14</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1756.23</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>3063.2</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1858.34</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>2818.14</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>2695.61</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1756.23</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -13694,33 +13964,87 @@
       <c r="K6" s="3">
         <v>35.479999999999997</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
+      <c r="L6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="M6" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="N6" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="O6" s="3">
+        <v>56.93</v>
+      </c>
+      <c r="P6" s="3">
+        <v>54.46</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="R6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="S6" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="T6" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="U6" s="3">
+        <v>56.93</v>
+      </c>
+      <c r="V6" s="3">
+        <v>54.46</v>
+      </c>
+      <c r="W6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="X6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>56.93</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>56.93</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>37.54</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>56.93</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>54.46</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>35.479999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -13756,33 +14080,87 @@
       <c r="K7" s="3">
         <v>1419.18</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="L7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2475.31</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1501.69</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2178.27</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2475.31</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1501.69</v>
+      </c>
+      <c r="U7" s="3">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="V7" s="3">
+        <v>2178.27</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2475.31</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1501.69</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>2475.31</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1501.69</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1419.18</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>2475.31</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1501.69</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>2277.2800000000002</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>2178.27</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>1419.18</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -13818,33 +14196,87 @@
       <c r="K8" s="3">
         <v>1153.08</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
+      <c r="L8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2011.19</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1220.1199999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1850.29</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1769.85</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2011.19</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1220.1199999999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1850.29</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1769.85</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2011.19</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1220.1199999999999</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1850.29</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2011.19</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1220.1199999999999</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1850.29</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1153.08</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>2011.19</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1220.1199999999999</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1850.29</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>1769.85</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1153.08</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -13880,33 +14312,87 @@
       <c r="K9" s="3">
         <v>1170.82</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
+      <c r="L9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2042.13</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1238.8900000000001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1878.76</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1797.07</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2042.13</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1238.8900000000001</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1878.76</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1797.07</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2042.13</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1238.8900000000001</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1878.76</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>2042.13</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1238.8900000000001</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1878.76</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1170.82</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>2042.13</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1238.8900000000001</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1878.76</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>1797.07</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1170.82</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -13942,33 +14428,87 @@
       <c r="K10" s="3">
         <v>-12.05</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
+      <c r="L10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-21.02</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-12.75</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-19.34</v>
+      </c>
+      <c r="P10" s="3">
+        <v>-18.5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="S10" s="3">
+        <v>-21.02</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-12.75</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-19.34</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-18.5</v>
+      </c>
+      <c r="W10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="X10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>-21.02</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>-12.75</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>-19.34</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>-21.02</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-12.75</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>-19.34</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>-12.05</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>-21.02</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>-12.75</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>-19.34</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>-18.5</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>-12.05</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -14004,33 +14544,87 @@
       <c r="K11" s="3">
         <v>-554.36</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
+      <c r="L11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-966.9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-586.59</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-889.55</v>
+      </c>
+      <c r="P11" s="3">
+        <v>-850.87</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="R11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="S11" s="3">
+        <v>-966.9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>-586.59</v>
+      </c>
+      <c r="U11" s="3">
+        <v>-889.55</v>
+      </c>
+      <c r="V11" s="3">
+        <v>-850.87</v>
+      </c>
+      <c r="W11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="X11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>-966.9</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>-586.59</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>-889.55</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>-966.9</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>-586.59</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>-889.55</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>-554.36</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>-966.9</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>-586.59</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>-889.55</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>-850.87</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-554.36</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -14066,33 +14660,87 @@
       <c r="K12" s="3">
         <v>-277.18</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
+      <c r="L12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-483.45</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-293.29000000000002</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-444.77</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-425.44</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="R12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="S12" s="3">
+        <v>-483.45</v>
+      </c>
+      <c r="T12" s="3">
+        <v>-293.29000000000002</v>
+      </c>
+      <c r="U12" s="3">
+        <v>-444.77</v>
+      </c>
+      <c r="V12" s="3">
+        <v>-425.44</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="X12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>-483.45</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>-293.29000000000002</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>-444.77</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>-483.45</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-293.29000000000002</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>-444.77</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>-277.18</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>-483.45</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>-293.29000000000002</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>-444.77</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>-425.44</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-277.18</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14128,33 +14776,87 @@
       <c r="K13" s="3">
         <v>-771.28</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
+      <c r="L13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="M13" s="3">
+        <v>-1345.25</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-816.12</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-1237.6300000000001</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-1183.82</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="R13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-1345.25</v>
+      </c>
+      <c r="T13" s="3">
+        <v>-816.12</v>
+      </c>
+      <c r="U13" s="3">
+        <v>-1237.6300000000001</v>
+      </c>
+      <c r="V13" s="3">
+        <v>-1183.82</v>
+      </c>
+      <c r="W13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="X13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>-1345.25</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>-816.12</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>-1237.6300000000001</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>-1345.25</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>-816.12</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>-1237.6300000000001</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>-771.28</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>-1345.25</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>-816.12</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>-1237.6300000000001</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>-1183.82</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-771.28</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -14190,33 +14892,87 @@
       <c r="K14" s="3">
         <v>-1120.76</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
+      <c r="L14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-1954.82</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-1185.93</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1798.44</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-1720.24</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="S14" s="3">
+        <v>-1954.82</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-1185.93</v>
+      </c>
+      <c r="U14" s="3">
+        <v>-1798.44</v>
+      </c>
+      <c r="V14" s="3">
+        <v>-1720.24</v>
+      </c>
+      <c r="W14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="X14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>-1954.82</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>-1185.93</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>-1798.44</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>-1954.82</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>-1185.93</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>-1798.44</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>-1120.76</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>-1954.82</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>-1185.93</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>-1798.44</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>-1720.24</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>-1120.76</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -14252,33 +15008,87 @@
       <c r="K15" s="3">
         <v>-632.03</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
+      <c r="L15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-1102.3900000000001</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-668.78</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-1014.2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-970.1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-1102.3900000000001</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-668.78</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-1014.2</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-970.1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-1102.3900000000001</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-668.78</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-1014.2</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-1102.3900000000001</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-668.78</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>-1014.2</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>-632.03</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>-1102.3900000000001</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>-668.78</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>-1014.2</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>-970.1</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-632.03</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -14314,33 +15124,87 @@
       <c r="K16" s="3">
         <v>-425.94</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
+      <c r="L16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="M16" s="3">
+        <v>-742.91</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-450.7</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-683.48</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-653.76</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-742.91</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-450.7</v>
+      </c>
+      <c r="U16" s="3">
+        <v>-683.48</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-653.76</v>
+      </c>
+      <c r="W16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-742.91</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>-450.7</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>-683.48</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>-742.91</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>-450.7</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>-683.48</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>-425.94</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>-742.91</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>-450.7</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>-683.48</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>-653.76</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-425.94</v>
+      </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -14376,33 +15240,87 @@
       <c r="K17" s="3">
         <v>-680.12</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
+      <c r="L17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-1186.26</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-719.67</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-1091.3599999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-1043.9100000000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="S17" s="3">
+        <v>-1186.26</v>
+      </c>
+      <c r="T17" s="3">
+        <v>-719.67</v>
+      </c>
+      <c r="U17" s="3">
+        <v>-1091.3599999999999</v>
+      </c>
+      <c r="V17" s="3">
+        <v>-1043.9100000000001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>-1186.26</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-719.67</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1091.3599999999999</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-1186.26</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-719.67</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>-1091.3599999999999</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>-680.12</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>-1186.26</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>-719.67</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>-1091.3599999999999</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>-1043.9100000000001</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-680.12</v>
+      </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -14438,33 +15356,87 @@
       <c r="K18" s="3">
         <v>-370.98</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
+      <c r="L18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-647.04999999999995</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-392.55</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-595.29</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-569.41</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-647.04999999999995</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-392.55</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-595.29</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-569.41</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-647.04999999999995</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-392.55</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-595.29</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-647.04999999999995</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-392.55</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-595.29</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>-370.98</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>-647.04999999999995</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>-392.55</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>-595.29</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>-569.41</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>-370.98</v>
+      </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -14500,33 +15472,87 @@
       <c r="K19" s="3">
         <v>-98.91</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
+      <c r="L19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-172.52</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-104.66</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-158.72</v>
+      </c>
+      <c r="P19" s="3">
+        <v>-151.82</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="R19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="S19" s="3">
+        <v>-172.52</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-104.66</v>
+      </c>
+      <c r="U19" s="3">
+        <v>-158.72</v>
+      </c>
+      <c r="V19" s="3">
+        <v>-151.82</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="X19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>-172.52</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-104.66</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>-158.72</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-172.52</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>-104.66</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>-158.72</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>-98.91</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>-172.52</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>-104.66</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>-158.72</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>-151.82</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-98.91</v>
+      </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -14562,33 +15588,87 @@
       <c r="K20" s="3">
         <v>-75.64</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
+      <c r="L20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-131.93</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-80.040000000000006</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-116.1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-131.93</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-80.040000000000006</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-116.1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-131.93</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-80.040000000000006</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-131.93</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-80.040000000000006</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>-75.64</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>-131.93</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>-80.040000000000006</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>-121.37</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>-116.1</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-75.64</v>
+      </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -14624,33 +15704,87 @@
       <c r="K21" s="3">
         <v>-14.55</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
+      <c r="L21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-25.37</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-15.39</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-23.34</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-22.33</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-25.37</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-15.39</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-23.34</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-22.33</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-25.37</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-15.39</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-23.34</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-25.37</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-15.39</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>-23.34</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>-25.37</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>-15.39</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>-23.34</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>-22.33</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>-14.55</v>
+      </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -14686,33 +15820,87 @@
       <c r="K22" s="3">
         <v>-46.55</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
+      <c r="L22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="M22" s="3">
+        <v>-81.19</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-49.25</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-74.69</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-71.44</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="R22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="S22" s="3">
+        <v>-81.19</v>
+      </c>
+      <c r="T22" s="3">
+        <v>-49.25</v>
+      </c>
+      <c r="U22" s="3">
+        <v>-74.69</v>
+      </c>
+      <c r="V22" s="3">
+        <v>-71.44</v>
+      </c>
+      <c r="W22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="X22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>-81.19</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>-49.25</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>-74.69</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>-81.19</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>-49.25</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>-74.69</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>-46.55</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>-81.19</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>-49.25</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>-74.69</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>-71.44</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>-46.55</v>
+      </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -14748,33 +15936,87 @@
       <c r="K23" s="3">
         <v>-212.37</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
+      <c r="L23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-370.42</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-224.72</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-340.78</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-325.97000000000003</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-370.42</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-224.72</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-340.78</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-325.97000000000003</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-370.42</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-224.72</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-340.78</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-370.42</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-224.72</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-340.78</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>-212.37</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>-370.42</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>-224.72</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>-340.78</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>-325.97000000000003</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>-212.37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
